--- a/results/rtx 3080.xlsx
+++ b/results/rtx 3080.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125654019352?epid=15031199219&amp;hash=item1d41902d18:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoPp4NkA%2BJNjmWcOGjDajT0zTkaWaI%2BCosjgB9nlPlpDWA%2BU1QVKwCp%2FJnC2K9D0m3MvzIavhXYpHkYRLSJYXWnxNMdhLxaHZ9MkGxv%2FyD%2FUM1e1ax0VQRgg05fMyyTfSYIap5CLC%2BSORL2ZKEC0ZTyCLjL3IXZ92nJX15pnl76Dqupnx8mAU2gY%2FJB8834%2BqGbGFe16iPeuPiciaG5bzbpI%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/125654019352?epid=15031199219&amp;hash=item1d41902d18:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoPp4NkA%2BJNjmWcOGjDajT0zTkaWaI%2BCosjgB9nlPlpDW2%2FktIobVlzTQONnW9jBUekAE%2Bz1BXHsSSdK%2F99gnNCIMKvlkFLXDfSnvB3Dm%2BC2X2fudlPUTwjMAnP03%2BbXW6DPTZzveA4I9CA%2FBz%2FC5U9fK6IQpBiGOM42AZK6if7F%2BnYt0OkIlDA9K1nHdmkl8wm%2B7bdzy0F4GTOxgNuHy5tg%3D%7Ctkp%3ABk9SR7y9y_WiYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404037111469?hash=item5e127d0ead:g:uWUAAOSwpX9jjyRX&amp;amdata=enc%3AAQAHAAAAoPlCdtTId7uJBCKyOM%2FrPnBN4ZnmBbxapA6T7UeEh%2FpdLeVC9jxSDIQh7rYYGP8urOkKltfLPU7o2D4PWNzmWTqBzKviGjBxG2jh7yMgoX%2Bz7mflrrXizpoCtlg7rP8fO1i3jNfw1TmrayKm6GVX5Q1zt8VfJ5S0CkWxuhXPuYy%2Bppk8idV6gWa%2BdzsoC66XtZE1W4fXzUSTBvg%2Bfrj%2FxZA%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/404037111469?hash=item5e127d0ead:g:uWUAAOSwpX9jjyRX&amp;amdata=enc%3AAQAHAAAAoPlCdtTId7uJBCKyOM%2FrPnBN4ZnmBbxapA6T7UeEh%2FpdJ%2BiL2RGVp94QdlTSAAR2SgVLkfBD0DknxJVrYBxpeEA2Zr7z%2FFcTiCnbyQ2g4TU2BZ7SYjT2lKFKyo5detp8It3HPOEJiIHYYJkXTRQpIWKFHp%2Bs%2FN2I7eH1NNdn9LVYMW9E9wTkvd8eR4TsTuqqhFVsovm9XOb9YiYor31TNE4%3D%7Ctkp%3ABk9SR7y9y_WiYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374405382109?epid=18053884757&amp;hash=item572c4cbfdd:g:fc4AAOSwVWtjmL5j&amp;amdata=enc%3AAQAHAAAAoGN22skkc%2BOJYCrMQdvd8p9RDZ162IxS11ap9UISUBMYDIuMTPsKxgOa82Hc%2B9CY2zBJ9Cii5ylY%2BZyVv1ePRJTgDujod8puFO0lowsyodBQxMcBw3XJ6JxnzUdYDun6%2Fo1lzZe5qitPpQ0S9W5jeTq74GjpHsCuEA2q8482zsangYxmpYFafz2UEztwnqLbhHpbG6OyEZqqaeUgG9dIkLk%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/374405382109?epid=18053884757&amp;hash=item572c4cbfdd:g:fc4AAOSwVWtjmL5j&amp;amdata=enc%3AAQAHAAAAoGN22skkc%2BOJYCrMQdvd8p9RDZ162IxS11ap9UISUBMY0%2BCMpeNBZXa9xy77%2B51e%2F6dJbjnabF4kzojiGZ09Wdhh7Qw%2BAaW08AmMooYwn3CYv81JAQ8GaAcYf4%2Fpnw7KYjDuBkO0m11osrB1TC0Q55om0PN%2F3r6PtcAA11tvfr41gsvAfvGS3RR69b23GRx3fRLijY1Uqz7JCwUzyZnAy3M%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJFUHNKZHGIGV9KK4rdkCiyQTH9EBJtQvbtXYDRp6vQdGN7sCjWuIIj66fjBnZrzL7T3ounGtPEKETFfgB74MZ2sz2VkMSkAG65qNea5Nw%2FmjsqK1xVNmp5ib5LmEdiuyy4BulW4vMTvrCoqYzT25qcogHAooiZmlgImA%2Fr%2F2BgVo%3D%7Ctkp%3ABk9SR8D36PKiYQ</t>
+          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJTTFXOmErStxpUQc9mVBs6UTTN3Bj5vLrzDy6blou1JvivsOO11qlZLq4WODYhcR%2BZwu0BaiwlfEEkOmkdBQKOKj5EoxUhKvRUqFHGEWHpeaJt9Cip4OJTB7TklcYdOsRJOSdhbtrPPpECqWs%2B0QpIylFYa1WOLOjOPzOr0sQaa4%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/144855657794?epid=5041892846&amp;hash=item21ba11ed42:g:itMAAOSwV8pjmj7g&amp;amdata=enc%3AAQAHAAAA4KAKAyirU06xOV04ic4GIOqrOQaSBObXQIDkM8SBodlCfDwovVpAFtI%2FVkZlz0df1AjUkHgqzdl3vF6%2FkatSnK4tu9qLrtr2Y0JqKqKgmJUKr1PfOFrUGPKku0uMDopqD28DHw1LuBow7eiVcNaZ1o%2FwVYPHlZk04PLGsVGPojkaAmFZFqRlaR3%2FBFziHHdcty6RRTGVhm%2BCDjZqJvvWiQzcWkSF7TBYTg1KKp5lURej%2F%2FXPLziZSgqr4vbwFeNWlLwJlzMLd9Yhq2NSXj2cEyaVeiinGE2pTeEBrR69QAem%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/144855657794?epid=5041892846&amp;hash=item21ba11ed42:g:itMAAOSwV8pjmj7g&amp;amdata=enc%3AAQAHAAAA4KAKAyirU06xOV04ic4GIOqrOQaSBObXQIDkM8SBodlCfDwovVpAFtI%2FVkZlz0df1AjUkHgqzdl3vF6%2FkatSnK4tu9qLrtr2Y0JqKqKgmJUKr1PfOFrUGPKku0uMDopqD3hJBvVZ7sOeMeDe7erCRPmhQpp7djVoK8q%2FmYzOwp9p2XYk1NvVcLMo7ju5H872%2BgrXueb9GSQGmmyz%2BYRnEXpTeqOb8SQw2Hg3P2uz7zFDEGzzBUF%2FQ%2F8PBvJYY%2BDqd9a4DMho3vUyA6b1guKK9Uh2nUYRrAuSBkBmn1QnX1qu%7Ctkp%3ABk9SR7y9y_WiYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404051515814?epid=23041457686&amp;hash=item5e1358d9a6:g:PwcAAOSw0B5jmLqw&amp;amdata=enc%3AAQAHAAAA4AlqlhVVVvtETtoP2U13Lc7w0MQ6XiLQjgsida7EL%2FC36iw5h15psxDlwEncGwHyot%2FNGquPtwrl9s5P6DbpKoorEVl1NMDw%2FEwrm59dl5J8TRAFaR4r9Gdm3ZDMZc0wI1oJwSO%2BSZ5xa%2B0KF4vBH7eIgPlkssN13R0VGLb9mUU80ZoV%2BEPe7MRroakGei9bQPDlgR9gBLKibYf7PkcAAiBljtlzmnw7UzxL2L%2FeGP4pouUt6bELuIqBWg5fh6UD6ofYQ925hvme%2BNRVaUfpUQ7kS5JoTIiWM%2Bk5bVJ1Cm1X%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/404051515814?epid=23041457686&amp;hash=item5e1358d9a6:g:PwcAAOSw0B5jmLqw&amp;amdata=enc%3AAQAHAAAA4AlqlhVVVvtETtoP2U13Lc7w0MQ6XiLQjgsida7EL%2FC36iw5h15psxDlwEncGwHyot%2FNGquPtwrl9s5P6DbpKoorEVl1NMDw%2FEwrm59dl5J8TRAFaR4r9Gdm3ZDMZc0wIzwiHXE00juWaHLh07o%2BqDnwGPrQsKJJ8V4HkSLHM5V306nuwFD50gx5mdYoMOFARSEHg4p5u7Uuw8qoc6nAEBajuS8dzVC%2BZOWnDUV9cDzsQ6mOE8zbyWjWaLhw4OeHB4oYD9YgejR%2F5z5w30M4g2PjXA51LGA14dChQNRjMNy8%7Ctkp%3ABk9SR7y9y_WiYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225298849319?hash=item3474db9e27:g:BDIAAOSwwX1jgyiF&amp;amdata=enc%3AAQAHAAAAkLpZ1CMYM53O67dqkFwy6JcALCRLYbE19kJiXoyFgeaRTSwOYVrySmFJl06DaDRrjk2GzwyHWZknb4wNXD7%2FIS10dQHMBpX3HTCdzc%2By%2Fw4n4svCEWiYzNHs3LJULXnbv0ryRYmow3Kh4binivafokKJsaSKC9Ha0c9e5qmOwORLmv7jNC2mmOKQizqrCXHmSA%3D%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/225298849319?hash=item3474db9e27:g:BDIAAOSwwX1jgyiF&amp;amdata=enc%3AAQAHAAAAkLpZ1CMYM53O67dqkFwy6JcALCRLYbE19kJiXoyFgeaRHLrHlKcoj5McslafS7KikjYHCS%2FoKk06NOlMti54fASxsL8U6gW9Gf6XIU0kzgRZtb20uIPvUlRlxp09FF16uaHUmtYfVPLyYQfF2%2F9vWs3NeX%2BBw9On2sZ9AcFEYonbhM688bHmWrHk4wwDkhh1Eg%3D%3D%7Ctkp%3ABk9SR7y9y_WiYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404051496392?epid=25041873530&amp;hash=item5e13588dc8:g:RDAAAOSwhTVjmLkW&amp;amdata=enc%3AAQAHAAAA4OX1tOYfley5IT%2FBTSA3Eo%2BLPjiMSVanTiacU0DvtAKwveWSr2%2Btkb4nqIBFy5slT8odptVzaGb1pFAXkFxBFaliYpVlGmRWO6D669kFD91GodDrxEPPsTakDzNLK%2BmfnXaJ8nhtTuTB%2BFlOtDF2HW1QHPE4Ux4QeMJyo5ZnT9n0tLPSk9754foSKqdDQhKtDjHx1JBAwt1e4nuBviIWsL0PB8hMb9lmOQf7k0VQv%2F7bm1FI8%2B4HP04h6Sj9298pk5Bjn7%2F%2FsazzxUkxHeepFft44BtAXvEry1RR563%2Fyt1T%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/404051496392?epid=25041873530&amp;hash=item5e13588dc8:g:RDAAAOSwhTVjmLkW&amp;amdata=enc%3AAQAHAAAA4OX1tOYfley5IT%2FBTSA3Eo%2BLPjiMSVanTiacU0DvtAKwveWSr2%2Btkb4nqIBFy5slT8odptVzaGb1pFAXkFxBFaliYpVlGmRWO6D669kFD91GodDrxEPPsTakDzNLK%2BmfnZwj08ZGRqaYAJWh7H5atQBsjxXytPADGia7ccSwrcPyvzQAeQFP%2BfKBAuedOVExwBDuy%2BoDL87vDw4K7fUAAOOJpiXCHY2uI7Bysh10Kl3PA7INJgKGEYDlVxZ9AnilZfF5F14n3Ll8ub1pD%2ByZ9Ml0YuhngjzDtTmM8D3izawK%7Ctkp%3ABk9SR7y9y_WiYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175527696209?hash=item28de441751:g:BuoAAOSwq1ljlN1d&amp;amdata=enc%3AAQAHAAAAoOT0CqdafMBvxO8lsB%2BUouM1DUefobsKQgO2tX%2FhtoXMFnHzhaoyzRYjD4Csf%2BIOsvSn1M2JCqGF05gdFeTtD35XsOEZyWu%2FACSWRM8pT9%2FZezPcz%2BCC1kY73ogIM7FAxgOzalpRZhKf8x%2Fr0wQOTMXQkG0HEv5QbeUGFS%2B%2FhwkvOq%2F%2FnytE0G4cSynwVeiswcGa0rrU3l%2Fkdl1PO9Co1Lo%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/175527696209?hash=item28de441751:g:BuoAAOSwq1ljlN1d&amp;amdata=enc%3AAQAHAAAAoOT0CqdafMBvxO8lsB%2BUouM1DUefobsKQgO2tX%2FhtoXMUvj0DOVk5%2Bs9e458qp2Ek%2FJiMdQrz87055BavunJYSAtmxZXsF294nufDc7NPsLVsCz5LDTaG9NYnUXlrcRsImxonYbQ6jz%2FLIHDjL406oKMj%2BJkXHOH2HgE%2BWrO1W2k5A0kETcUO%2BFRX2lkdB8Z0%2BW65jfJHngLKiVnTF%2Fj5Oc%3D%7Ctkp%3ABk9SR7y9y_WiYQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255877482888?epid=22050522091&amp;hash=item3b937c8988:g:2XkAAOSwbs5jmPhf&amp;amdata=enc%3AAQAHAAAAoK%2FBIwmrlDKEd4wYzOLTC7oGxGMWARbzbGaZsYxGEMWZvIzCoc7J4vcHhaEddbqzV%2BDrFXUDBj48q9Qsc4XNc0JLlGNbgFrSkodTf6kx9SQ2NkUb3ikGeghmOVZrxEFFFwgMUusM3q94kodemqOWlQKiMaDu1HjBjlSu37B%2BwaeDTsCpjcIgd%2BXON%2F5mtYdX4YVLMuAd94VxvoMBnzmPQLw%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/255877482888?epid=22050522091&amp;hash=item3b937c8988:g:2XkAAOSwbs5jmPhf&amp;amdata=enc%3AAQAHAAAAoK%2FBIwmrlDKEd4wYzOLTC7oGxGMWARbzbGaZsYxGEMWZI1Wbi3ia0fxOC9vV0JbHspWvA4lV8xHsP6Gql6Kn1lgP9DvEaQ5ozXCotxQUmVcyUOwvYnYPErETlzuADiBgAm40rVHFQ2NbJEo%2BFeInVeTR9T2eIFwZgqTHWDRfGSxN0VgKCI3JPlOjlxKqgoxL5UqOjJRssZimItILxUQqPCw%3D%7Ctkp%3ABk9SR7y9y_WiYQ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175528927975?epid=18053884757&amp;hash=item28de56e2e7:g:9x4AAOSwn0xjlfXX&amp;amdata=enc%3AAQAHAAAAoKZja%2B%2BjYkfTiPtLwQKCdB2NCRx3g3BmAoEYy3ltQtJaeVbsuvXg8j1uN0Eqx8x7LoGtHURFp3HgJFuQ9cEyqCSpEDRKH0iLAGDyXQJdK2fP5%2BggI6gX2I5l%2FkKQtWg5yDDOZ26q1AXKMcyy6lZyl2KUjWUfy3DQoH8J9CPok2CR7%2F247C16cnFNt%2F%2FnUmFvhrTFPdkb75CZY4NUuQ95XQk%3D%7Ctkp%3ABk9SR8D36PKiYQ</t>
+          <t>https://www.ebay.com/itm/175528927975?epid=18053884757&amp;hash=item28de56e2e7:g:9x4AAOSwn0xjlfXX&amp;amdata=enc%3AAQAHAAAAoKZja%2B%2BjYkfTiPtLwQKCdB2NCRx3g3BmAoEYy3ltQtJauOnlq6iMHx5Ozzhd78uUb73WRwvA0ND14Y8K6Gt%2B03cnfCTrWZm6YIQTh4emfFsB5B5BkR5fUWHoCnqOhrVUfU7pcvO1ukiqIn33zMF3Eg1d2Yj5RrSdzcL3t37iokcJ63TpB5q6mloVEs7hl%2BfcbkDP2UJRFPokYJVYmC9cTY0%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/134366479450?epid=6041894992&amp;hash=item1f48ddc45a:g:dWQAAOSwYMZjmjWc&amp;amdata=enc%3AAQAHAAAAoBSvD2inlonuIcrF5uDOKvzyBiTuy9ZKDKzHW5TJ7N0E5o%2FYMson917s5OW6Desq7rGIQCsslE%2F3Dr7dRF1ECHT0LCw7ByNzsFuWC%2BLIcjGAHJCOPII56qIfevSBh9S0Ucqn0wtk1e9a7ec%2BIEPpgwu6WD3hhELAeqzZhyzeVSGBriFfoWp%2Fkm1asjoQnrZ3SsE0Xq8SQdbsnWBxqQ3vwdc%3D%7Ctkp%3ABk9SR8D36PKiYQ</t>
+          <t>https://www.ebay.com/itm/134366479450?epid=6041894992&amp;hash=item1f48ddc45a:g:dWQAAOSwYMZjmjWc&amp;amdata=enc%3AAQAHAAAAoBSvD2inlonuIcrF5uDOKvzyBiTuy9ZKDKzHW5TJ7N0Eqq9AvCGOgRBPReB8a98hPfsMJe4z8j1M0jaISVzaAUi5RSWLfNZ%2FxVaPP%2BQAZt%2FgQdDpVl2SiEgVlZ4fq9bF%2FzCR6J8mUSymum6vN7AenbVIv%2FR5cP609Rh4e1loKsXlpTZByp8gwyKsTKyHbvWqDnRoo4uXjwElOGPpvVOswzo%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204182194587?hash=item2f8a35099b:g:yN4AAOSwQWFjlAL8&amp;amdata=enc%3AAQAHAAAAoHOcC7AwILy5JLx3LWUEwfLY0vXe6k3KJuEZiBrXJZ2Veb6doZ8Eb4Lt1i8NS9uAOJiLcSTxZq2%2BknUoHjxV1DIF3%2Fll77YbPi2yaMXUtS%2BxthLxsB2EkUdONJIOoXlI%2BKD%2BlsLZgaGZbu%2B%2Bz71Pco1XKsrRg9MUtyQzB%2FX3sNh7I%2BFAot5uWMhLdzI0W%2B3UErMmhx22ZbEAaP0XF6uQUeQ%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/204182194587?hash=item2f8a35099b:g:yN4AAOSwQWFjlAL8&amp;amdata=enc%3AAQAHAAAAoHOcC7AwILy5JLx3LWUEwfLY0vXe6k3KJuEZiBrXJZ2VEpvxT0CZaS8eRVo%2FEswyr5E6fchnw3M8xGQ3pNUVKcvAGj3fNaAKbExG1m5kql7HOwiB8tBtTCkKP9zWWvrbWp5mawCwFKlrGb5mBvGMKxnU%2FFlyLzVAvb0V63mJPgmm1vH8tcd6OsT95VaG8xgZF4Q2iEKsmTc9GNcrFCUAXzc%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266031573205?hash=item3df0b7a8d5:g:NU8AAOSw1uljB2xo&amp;amdata=enc%3AAQAHAAAAoEueXhR%2F2OpYe6%2F3CKstYNk%2FtC%2BGNYhJ%2FfCadUI9%2BwEO8VZ7BcKyNVd%2F8kMVNmzuuKJV86AFBhp78bYoNqGZu1EbN%2FWeEso1tGM%2BlU56wNzZkD9LSp2e1AtkUJVym4XulXR%2BbVNcRlvQlOHkL5QjH8w6Xtj2fwQTcrsSgv0Tkl%2BjbxkEWYeXjfIP11SJmNlMESs4RxCetVVS4A3dZ9cGbEw%3D%7Ctkp%3ABk9SR7z36PKiYQ</t>
+          <t>https://www.ebay.com/itm/266031573205?hash=item3df0b7a8d5:g:NU8AAOSw1uljB2xo&amp;amdata=enc%3AAQAHAAAAoEueXhR%2F2OpYe6%2F3CKstYNk%2FtC%2BGNYhJ%2FfCadUI9%2BwEO3XXhZnGhi6Wq4yglYaVp1Z%2BWWFV5OjX1jhyUEpdWH2KMUt%2BaFl%2FdoBjI46kB44Av3LAqiQzZapqqhKNbjYw9CKEEjwZSNqekG5rYPxbrqRJeA2VD5YzKifaLjQTavznvWtPDMOaXoQK%2B0L%2FVXH17BTvMAgZpvTlQe%2BHp15iOfN4%3D%7Ctkp%3ABk9SR7y9y_WiYQ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1098,7 +1098,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/195509924765?epid=23041457686&amp;hash=item2d854cb39d:g:~ikAAOSw0E9jkaTw&amp;amdata=enc%3AAQAHAAAAoFSnkoETAJcd8dMxGMZeDGczlgdR%2Ba0bp%2FzbguWKNLqkVOl%2FvLLUNEwqseTrCMA%2Ffk09cWB%2B3tR5tKZPIYgIbcXa9Y0WzMGi0cXZX0CwQaWeO96kVyjVNvLex%2BC%2BLxtKXeqJ%2BxAXugO6U0ttWz5q%2BK%2Bu14n89la64v%2B22PlkiDRYxWYXEKYygqdJyYKPd0KcLOXP%2B0yf21KhPwUlguYlnAE%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/195509924765?epid=23041457686&amp;hash=item2d854cb39d:g:~ikAAOSw0E9jkaTw&amp;amdata=enc%3AAQAHAAAAoFSnkoETAJcd8dMxGMZeDGczlgdR%2Ba0bp%2FzbguWKNLqkeZSM4GNnaWdwXkq%2BMePtSuGoy9Q3%2FnL86ImuZmNLDhY3Tkhvb7sRz7sC2opNNooSJOf8YHwZowC5t88YaBJn6zK%2BQTDXDE8GLvB2GFE0aRt1IV3CRbNT8n%2B4I1Y1uYGLuyaWfkQC3lrRR3ZVsZ9ucBNTwSPiW%2Bardh2gmSVUYFI%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374405297154?hash=item572c4b7402:g:TucAAOSwzahjZDe6&amp;amdata=enc%3AAQAHAAAAoJnKO1osgvSsRjCDxX6sUZmFixNKvqTc3q4FPQF6C02YlU7t8ywmG3FhJMuWw%2F4Qcl0xYmOlLQ5DD3f1zedl1QHjDyD%2FY4XG%2BxL9Istd%2FycpQZg2bktR%2FdaSitizgGeeX6WJ7CIu0ST9gXCNhDNJsyMfo8NHU6XhLw7vTrafFxjl76t0ifo2KfYvUtE9S%2FzkY1MDlij46mp02MyKOkJ3Bvs%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/374405297154?hash=item572c4b7402:g:TucAAOSwzahjZDe6&amp;amdata=enc%3AAQAHAAAAoJnKO1osgvSsRjCDxX6sUZmFixNKvqTc3q4FPQF6C02Yk18RSBg3hnUTQgia2b%2BKvCDbthKgzqjsmZHfv2Zj3l3wRsgOkkLLkrQF9Fz3kNs9osX8tygBQmmcNNQ2IqvH0btvg3PqRcSGP1%2Fp01hYcooousanL4AICe%2F6KJdfr%2BJMKRWF5U9EBacsQ5X5y7xiiFeopMtcH1sqpJyZtBdxvhc%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1186,7 +1186,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225289640703?epid=25041873554&amp;hash=item34744f1aff:g:g0MAAOSwMf9jPxKT&amp;amdata=enc%3AAQAHAAAAoOtoi6ijug145Xm02tY0qnjo5qpVNyo2IUeAeQBT%2FEiGQR2mfa0k2KrxmS5tYHWXK8cs2UY68Yg6RQ5YTnKlmgqs80Pq6rgzcBtYVF%2FDFc4135i7niul9KwlF81QHk7rj67fHhHbzQJvxUL0dzJvzoopPwACxmBtvVNxlciAnv4Ih%2F1SpreheIoXo9NJq1hXu8UhJx1cLW%2F2CYlGD1Ewa10%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/225289640703?epid=25041873554&amp;hash=item34744f1aff:g:g0MAAOSwMf9jPxKT&amp;amdata=enc%3AAQAHAAAAoOtoi6ijug145Xm02tY0qnjo5qpVNyo2IUeAeQBT%2FEiGZw%2BNlFCZwedfTtXpYd5zW6aS31C1rIG%2F0MBk%2FkytolREIfWo%2B%2BuCBIbQxe4sB7ocUO7ZxbnuSE6Qh7sig8YktDpGM%2FQ%2B%2FYjZEwBein3dEg7k2aijNYxFAWi1Fp9fJqy0BEd%2B0URRmjYQciRc18DfWK16FJ%2Bbz2NW07bazxCijxc%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225286712180?epid=25041873554&amp;hash=item3474226b74:g:g0MAAOSwMf9jPxKT&amp;amdata=enc%3AAQAHAAAAoK7mFb8SWOoBhLhSnLjVavqA1C7t4B8zLhdoE6ntbeiOF7xxyj5UzK3Iq4iFVS2qBzgTk4Pd99HOBCGqD4Lbjpvm2e1HzKtS4F0DWDdMthojWhmaKJme2qjRQx1NwZU8bL4dWm1q8sBuArmjnoyzYVeJjGWmzxWG1ZwehiTD6P0Pf9LWrfLQediZ49NJZ2ANL3AbN4QuZomivMNHf6Pec7U%3D%7Ctkp%3ABk9SR8D36PKiYQ</t>
+          <t>https://www.ebay.com/itm/225286712180?epid=25041873554&amp;hash=item3474226b74:g:g0MAAOSwMf9jPxKT&amp;amdata=enc%3AAQAHAAAAoK7mFb8SWOoBhLhSnLjVavqA1C7t4B8zLhdoE6ntbeiOviG2ec9ITiumT%2Frs0kzXV6uRMHnn50yPtpiKioMsk7Gco7nU7PagTY1jO5uDanENhR5OQRSXAn9KufiraYtNNu0lDG2BymRJLOU%2Bjy7RrN63FpfenGA2WL2Ty81NhREQnx5fs9Hq9mhU%2BK1vIY%2BNdrY48TmnL2obXijBuTCJsfQ%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/155301073429?hash=item2428aa5215:g:aawAAOSw8Sljk43G&amp;amdata=enc%3AAQAHAAAAoHqRs9kO2EA7MPICqdvyCnrBSRGmeVICkGu5f6%2BPbiVlLTAb2X56OsvQ4H2UUJHguDcmY1N%2B%2B4H%2FcwwWDoqB%2BCC%2BZjl7rj9hhDOkNU3B5CclyoqKMBnkTkwizLvNMGoBYV2GzxLQDPxKwHqji5iSNsVvsi9CtK8LrF5gbRp8vgcjcxXLigUAZeqm%2FqixclVfzMLonkTtxMWfs69xl%2B%2FtL0U%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/155301073429?hash=item2428aa5215:g:aawAAOSw8Sljk43G&amp;amdata=enc%3AAQAHAAAAoHqRs9kO2EA7MPICqdvyCnrBSRGmeVICkGu5f6%2BPbiVlCyQrGystbJ7V37kat6tn1xiDN4CWo0hR%2B0kBxXDD1qyhVly%2F2qw36ej45sgbfYDZcxA0nnV9iSBFGPPkBlcPw3t74As%2FAO7ZODOGhpZgekLj0MhJ6yqg3Jp80QOgK4kPO6zKnhYlz2j7rI8Vu2KQpMqh5iBNnUjKWby%2F6q%2Bc5jg%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295418880621?epid=14047876923&amp;hash=item44c856626d:g:vpkAAOSwSC5jmw99&amp;amdata=enc%3AAQAHAAAAoJy586DAlOmfcPCL%2BbIac5xONiBkBxbyuA9oDopF4GYawYaK5mghUB46mLOywhgGOTF%2BxfE96rgnLGaSKc2nOkko4TRcwZq0RXJcRQ5q7Qsy1BiZZDGH3YflOzB64lAeJBbfJNKUf4XvcGRroBOiB1bBj7vNu71bzpkhHlcJQJraxL3XTgGvP7w6pk%2Bf8iwAM66713Z9ouavOkKjzGnf9cE%3D%7Ctkp%3ABk9SR7736PKiYQ</t>
+          <t>https://www.ebay.com/itm/295418880621?epid=14047876923&amp;hash=item44c856626d:g:vpkAAOSwSC5jmw99&amp;amdata=enc%3AAQAHAAAAoJy586DAlOmfcPCL%2BbIac5xONiBkBxbyuA9oDopF4GYaLVDnXbx8bCj9WwbkDDidXrv6jtpw3IldEHqeGLzaNEo4xCT%2F7PcQHDogJzCmBn%2FFSDM78TItNIUCj3HkT5EO28aOv7VoFrjuDvU0U2wFewJvd61kyuAoBc1nCc4b1sdhC1nnl63WoLueVsedLepwjXKerCWZT40XDrQ2iMSaNvA%3D%7Ctkp%3ABk9SR769y_WiYQ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">

--- a/results/rtx 3080.xlsx
+++ b/results/rtx 3080.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,36 +482,36 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASUS RTX 2080 TI 11GB GDDR6 TURBO NO RTX 3070 RTX 3080</t>
+          <t>2 Stück AMD FirePro S10000 | 4xmDP+DVI | 6 GB GDDR5 | 3584 Kerne | Abverkauf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125654019352?epid=15031199219&amp;hash=item1d41902d18:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoPp4NkA%2BJNjmWcOGjDajT0zTkaWaI%2BCosjgB9nlPlpDWsKMvjWK6PijVqpbSBxEe8O1mujRXzgd2T2qwKZvvnNVgQFaWMVqCmLunhoel0AfhSmhJUrWLfUUNAw5ztsgh0nNEiTE7Q%2BslKnxBCguHVe1j5d4CCkFSJyiBKFUlXsTx%2FpA4ArHVpHzTiCi6OjD58DewYGFORc1Nv3wkUOQmLWo%3D%7Ctkp%3ABk9SR6aT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/265048648447?hash=item3db6216aff:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoAkedz3J3RKbUB9y5GquAUg23%2Fhqppem%2FJ0EbUnfn7b4bD4z%2Fbg3a1Z4CPN92wovLj6mehMe%2FTAxS9a95%2F%2BvPmiqHNxjv8hesIDljOwloDzNoT09oNGJKoWU4prfaaRdy3vryDOohWjyyQq%2BWv8r%2BjJaaXfokBGfjGiOh3W03uMRuyTxRN%2F2OcnSnvwyFXmuMs7mNe4p0%2FCOghbfI1HwuZ8%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Somente peças</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>509</v>
+        <v>180</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>de Itália</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>519</v>
+        <v>205</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -526,36 +526,36 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3080 GAMING OC WATERFORCE WB 10G (Rev 1)</t>
+          <t>2 Stück AMD FirePro S10000 4xmDP+DVI 6 GB GDDR5 3584 Kerne Abverkauf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404037111469?hash=item5e127d0ead:g:uWUAAOSwpX9jjyRX&amp;amdata=enc%3AAQAHAAAAoPlCdtTId7uJBCKyOM%2FrPnBN4ZnmBbxapA6T7UeEh%2FpdSCTdHGvzV2KgemY7BK9uIbQ%2FEAbRINuih71sNEWNVzVSsP4s9w5CUQg1u405gCbEdcLRZcjn2iQ4NfBQNrAL2dqq7TswJbRtdZnyWWGf6yCRF5T4BCCBU6s4U2tPnFeC1B7r0JB4Eghwx2c1RfxctWYtSTxLuZNl6sK2uyD1mFU%3D%7Ctkp%3ABk9SR6aT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/255870438830?hash=item3b93110dae:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoDpn99LpZ%2FpMGIqRcWnoeUe7Q25xpZEvEHzeiVKm%2F58Mc%2BmyHsPGTThyV0DBDwubEThCwdlNPkIDgUa0EZPBQHo%2FlrI%2BWu5CUj5rfg4n9WUDIwqEThKcdeZ2TCsjH%2FQhnpkXZGMT%2BW%2BAS8PWiyA7JhsOcQyGuCBRBSVGk%2F%2BrIvRad7votLok1BUTet%2FkTGMFWJXLU4Ey%2BHXNl%2FBE30TMtm0%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Somente peças</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>595</v>
+        <v>186</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>629</v>
+        <v>211</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -570,25 +570,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GeForce RTX 3080 X3 LHR Grafikkarte - 10GB GDDR6X, HDMI, 3x DP with warranty</t>
+          <t>2 Pièce amd firepro S10000 4xmDP + DVI 6 GB GDDR5 3584 Noyaux Solde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374405382109?epid=18053884757&amp;hash=item572c4cbfdd:g:fc4AAOSwVWtjmL5j&amp;amdata=enc%3AAQAHAAAAoGN22skkc%2BOJYCrMQdvd8p9RDZ162IxS11ap9UISUBMYVWAdwb8h1AwgUVylEAh4MpMTR%2FDeBhzkvjRM8xMMt4ymmxYnNsIroCDIjV4g2mtcBuC5%2Fl8ow31iECP%2BItkqm3WwQ%2BlmO%2BkpULw7vLQJyWHdXn6P4SIyEbabYyJP%2BJH9qR1bEAyf%2BICQjpJWHZFE8mEvfGvaBK7da3soaTKvf9A%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/255870478858?hash=item3b9311aa0a:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoBr93JYMF6T7QucwMLp4GgpSvWflswoUb%2BAGvILgzZCQLsbgLLVx57HrsxbsIpZgn%2FvfjxXBs1XJZq%2BriIXchKyNhpu9jpVLe71hB0H3s4JdFAPKav%2F1bYJ9j72qx1A2Mp6Srzlvst3sr5yf%2BjnbqPsII8q1a9BtneBF6lvITfd1cIhKyoDTncJtEFk%2BBQju2aQMRNWRxL1Al0l5dYnfFP4%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Somente peças</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -596,34 +596,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>No other purchase options</t>
+          <t>Comprar já!</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
+          <t>TUF Gaming GeForce RTX 3080 Ti OC Edition (Heat sink and Blower) NO VIDEO CARD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJ2Ki5cj1Xi9QZ%2FJPmJJHjbVRfTM8QREuEgtf76A9bmtlyeOUe%2FRghYndYVDswoAjun3H%2F7jzdaLt3GontxDq2jnvrV1FRAV00pFxlzglaJSixZJTzIwnGqyedfYJiYaqQcsAB0QMPYd3CrtQZI7yGMJKHZHQ5eazYxLQay5cSZtw%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/275548475658?hash=item4027f8110a:g:goYAAOSwfupjUZJ2&amp;amdata=enc%3AAQAHAAAAoPkD7KzYPJcMTcPC1u4znHxGHlm3bvv%2BvHlgb69VEtcPJk%2BId01CkGovfbFMhcj%2BwrPi0jADhAl91AERnL0VPAUZ%2BIb75yZgk%2BbIhgaCzdnU089PiMnTHJGraLpVvubO8j20vIAizB%2FmpHXyFJrTP11HzFeCaY0QUFWQqcsBxbdft10%2BFdzaYtqFSoQ48KIFm34wqFBA6UoX9dUhXntDZho%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -632,42 +632,42 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>de Bulgária</t>
+          <t>de Polônia</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>No other purchase options</t>
+          <t>ou Oferta direta</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Novo anúncioNO LHR ZOTAC GAMING GeForce RTX 3080 AMP Holo 10GB GDDR6X Grafikkarte </t>
+          <t>ASUS RTX 2080 TI 11GB GDDR6 TURBO NO RTX 3070 RTX 3080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/144855657794?epid=5041892846&amp;hash=item21ba11ed42:g:itMAAOSwV8pjmj7g&amp;amdata=enc%3AAQAHAAAA4KAKAyirU06xOV04ic4GIOqrOQaSBObXQIDkM8SBodlCfDwovVpAFtI%2FVkZlz0df1AjUkHgqzdl3vF6%2FkatSnK4tu9qLrtr2Y0JqKqKgmJUKr1PfOFrUGPKku0uMDopqD%2BfcPx8rdX0a26rz1%2FHo6AYAC8fpYoDCe26y1%2BCdhr9i3pMeHdYwD4oqQ7qtgmUfAQitx762%2FS36NEGDaYfGHt%2FORuEZydeQIYTeiMJDTu0lyXI878IGr6Sc%2FXfmh6fgYszLlyO%2F8LhwtyIzout3ECsfePpxXASWJMtK2KIXxRew%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/125654019352?epid=15031199219&amp;hash=item1d41902d18:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoPp4NkA%2BJNjmWcOGjDajT0zTkaWaI%2BCosjgB9nlPlpDWeGizpLP5DZ18odU9yM3xPiORbFNKvXv%2BlkXeXFjnyf0IygR%2BgxY0x44YgI9WFr%2BL%2BL9yU3%2Fhp41gmNZZHlryloEheRo13BOZ7CdITdexV4gYEtUpdIltOPD36ezuEhgYpLdrj544VJzkXPzpjKj2xsoF4%2F6wnuYb%2Fqo73H%2FdYDQ%3D%7Ctkp%3ABk9SR6SayoOjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -676,42 +676,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>341</v>
+        <v>509</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Itália</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>356</v>
+        <v>519</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>No other purchase options</t>
+          <t>Comprar já!</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 10Go GDDR6X Carte Graphique (GV-N3080GAMING OC-10GD)</t>
+          <t>Gigabyte GeForce RTX 3080 GAMING OC WATERFORCE WB 10G (Rev 1)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404051515814?epid=23041457686&amp;hash=item5e1358d9a6:g:PwcAAOSw0B5jmLqw&amp;amdata=enc%3AAQAHAAAA4AlqlhVVVvtETtoP2U13Lc7w0MQ6XiLQjgsida7EL%2FC36iw5h15psxDlwEncGwHyot%2FNGquPtwrl9s5P6DbpKoorEVl1NMDw%2FEwrm59dl5J8TRAFaR4r9Gdm3ZDMZc0wI4O%2FXnfBnl6i1NPm97MJYTA5FZ%2BnXqZaMKPovaTtvUCUntWqVvTvTGC3ih%2FIx4fVGnrqjLj4SzHtA4OnkMu7NWVBGWFtbp8bPXyJI%2BFnO44rHX0O%2BkCqL2shB25nzR1DQ4MQL5baEc9DOTstvShTU73MaQftDerBFNyis8tWTLo4%7Ctkp%3ABk9SR6aT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/404037111469?hash=item5e127d0ead:g:uWUAAOSwpX9jjyRX&amp;amdata=enc%3AAQAHAAAAoPlCdtTId7uJBCKyOM%2FrPnBN4ZnmBbxapA6T7UeEh%2FpdkXEZyjilMI%2FYdEno9cXp59RUkdV2SLoQ4%2FOTtu3O82BIH4okVuxlNMCKimM900S4RbKjYOf%2BOnuxU7fRkvBv8R9wRQ%2BJpwIumn1YjXgWp3z0lV1UH1c1GXI%2FFbg%2BvuGJbPs83Lz864V3hXxmSWN3lszJPRT5Th5R%2Fi2XvcKXv1Y%3D%7Ctkp%3ABk9SR6SayoOjYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>401</v>
+        <v>595</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -728,34 +728,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H7" t="n">
-        <v>426</v>
+        <v>629</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>No other purchase options</t>
+          <t>Comprar já!</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MSI Geforce RTX3080 Suprim X 10GB DDR6X working fine + OVP</t>
+          <t>Zotac Geforce RTX 3080 Amp Holoback (incl. OVP, working fine!!)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225298849319?hash=item3474db9e27:g:BDIAAOSwwX1jgyiF&amp;amdata=enc%3AAQAHAAAAkLpZ1CMYM53O67dqkFwy6JcALCRLYbE19kJiXoyFgeaRGgg2FwMmOaSIL69wJG%2Fz0VHHZSeS4b%2B0W%2BDirArrg9IRjOgEzJxwAy%2FuoGUYFZY4chABj9Hut%2FZeXGis3A1kyxufo7B12A4ZC%2B2VoT4sso33h1nIhlYOvty5y5CwAQk1Wv737jHF12n38LgHnzXIiA%3D%3D%7Ctkp%3ABk9SR6aT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/285075658877?hash=item425fd5587d:g:ppUAAOSwC5Fjgycl&amp;amdata=enc%3AAQAHAAAAoMDoBdpEx7qldxrx0QQbT2FiH7tetgNBcvD%2BLkgH04GPnhIGYL3AT07JeYxwAEnurnD6TUOdMj20%2Bq69zZAP7WRXxbXKN56%2FvPq8wRjNHRkGqrpPZC4ukW5tGQV5l6H1BBtWxfae%2BnBgD71OZwJERiajVu1BoLRkrDeRvN3WEz55oeGID3XHTmcVU9umxlN7%2BHapWKEeLbwWeH2JJxX%2FN6U%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>431</v>
+        <v>234</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>449</v>
+        <v>252</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -790,16 +790,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 OC 10 Go GDDR6X Carte Graphique</t>
+          <t>GeForce RTX 3080 X3 LHR Grafikkarte - 10GB GDDR6X, HDMI, 3x DP with warranty</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404051496392?epid=25041873530&amp;hash=item5e13588dc8:g:RDAAAOSwhTVjmLkW&amp;amdata=enc%3AAQAHAAAA4OX1tOYfley5IT%2FBTSA3Eo%2BLPjiMSVanTiacU0DvtAKwveWSr2%2Btkb4nqIBFy5slT8odptVzaGb1pFAXkFxBFaliYpVlGmRWO6D669kFD91GodDrxEPPsTakDzNLK%2Bmfnakg4VjdOx%2Fl66xUNqErdFN9MGAPgAMEBN6xIqMQRefZG4CJJrIK73gpxpBFQIjLkrOZZlKqaQMfR4R06kUOmMEwhFtRVB1AccbelT7HEaICb7rz9ubggcDGKHGTgkUt2yjkeDcnf5I24r%2BZDNSbari%2FKurGAdrXl9kLx80XFSlt%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/374405382109?epid=18053884757&amp;hash=item572c4cbfdd:g:fc4AAOSwVWtjmL5j&amp;amdata=enc%3AAQAHAAAAoGN22skkc%2BOJYCrMQdvd8p9RDZ162IxS11ap9UISUBMYVbQBH9avJLbyCihr%2BPyxDkWbLwOUzAr%2BOq4CZs1FROODPtOUK173pLRy%2FivJTCkdYxfCCVaNVVQrWOleGWUOxKpUyvWOtSz8kCLHRMFrIeKQ1VViNAgK2XuDtvrR%2FiWQbvmKlBptFQsOVrUjOOyAsgiwMfWLq9Bf%2Fh82RjpVqH8%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -808,18 +808,18 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>452</v>
+        <v>258</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>482</v>
+        <v>274</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -834,36 +834,36 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>✅ NEUwertig: MSI GeForce RTX 3080 VENTUS 3X OC 10G inkl. Copper-Mod</t>
+          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175527696209?hash=item28de441751:g:BuoAAOSwq1ljlN1d&amp;amdata=enc%3AAQAHAAAAoOT0CqdafMBvxO8lsB%2BUouM1DUefobsKQgO2tX%2FhtoXMcd3ssW1Q0MTI1ovLZqkaCVA%2BLesu3qa7HfQvyS3%2Bqo%2FJRDPbtOMmFQcL89I2HXMBwW5Gd9WA1LqSXw%2Fva2KF4EuGX8JZk4i3b455Ui4KnLyYKNk1G0eT6CLwim1dGUTJXB6reGUapIHPHYm6uF0F3BoUs406chKdyypuM6OTaMk%3D%7Ctkp%3ABk9SR6aT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJkkcfd52q0BOSYnCRZOhYWo0X2Kt2HGTRug0TaTh7pcg6%2Bu%2BoXe6AcEIrOzSrxDHNxgk6GuJaTNJOQ1z8H7a7ef0kJgx%2Fyani4S4AIMgyrMB9lv1MKuiBtJmf03KmHxqUJk7wzLFM9lEcrhndgWfsowKrhNFIuGv%2FfUHIFSFtNxE%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Novo (outro)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>506</v>
+        <v>251</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Bulgária</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>521</v>
+        <v>283</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -878,16 +878,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 OC V2 LHR 10GB GDDR6X Tarjeta Grafica</t>
+          <t xml:space="preserve">Novo anúncioNO LHR ZOTAC GAMING GeForce RTX 3080 AMP Holo 10GB GDDR6X Grafikkarte </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255877482888?epid=22050522091&amp;hash=item3b937c8988:g:2XkAAOSwbs5jmPhf&amp;amdata=enc%3AAQAHAAAAoK%2FBIwmrlDKEd4wYzOLTC7oGxGMWARbzbGaZsYxGEMWZVZv%2FlbMOmVAz4mGQNV8uwm6WcG0LVHxDBJvlZRE6AkwANhrpi6E0HMcdKj8I4lIQ%2Bh3%2BadMZPNspgmdNVaoIJQM25Qyxzm4H2dxgsHpBbyRhIKBmcZfS7mLIxYkzpyWcQzaW0QZXBIwo4wESxO8RERHJV09%2BJ8wWBpkcN7F%2Bvt4%3D%7Ctkp%3ABk9SR6aT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/144855657794?epid=5041892846&amp;hash=item21ba11ed42:g:itMAAOSwV8pjmj7g&amp;amdata=enc%3AAQAHAAAA4KAKAyirU06xOV04ic4GIOqrOQaSBObXQIDkM8SBodlCfDwovVpAFtI%2FVkZlz0df1AjUkHgqzdl3vF6%2FkatSnK4tu9qLrtr2Y0JqKqKgmJUKr1PfOFrUGPKku0uMDopqD729wcSIC5rkgtQA1A%2Br5feoU3X7Yl5g42y20atVqo7U3w0xHoiB1v%2FpoDdjyDWiMmNWif0VM69w%2FrgUjMr%2FJ7erlHYu6C8USz5hzE5if3JL8zZBOVqdL8yyFSCHUfn0cpwK83AB7VjYidDWSDOyn%2Fc8WNwIeRc%2BGtqGkEiVZ52e%7Ctkp%3ABk9SR6aayoOjYQ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -896,18 +896,18 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>511</v>
+        <v>400</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -922,16 +922,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 3080 X3 LHR 10GB GDDR6X Grafikkarte (N30803-106X-1810VA44H)</t>
+          <t>GIGABYTE GeForce RTX 3080 10Go GDDR6X Carte Graphique (GV-N3080GAMING OC-10GD)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175528927975?epid=18053884757&amp;hash=item28de56e2e7:g:9x4AAOSwn0xjlfXX&amp;amdata=enc%3AAQAHAAAAoKZja%2B%2BjYkfTiPtLwQKCdB2NCRx3g3BmAoEYy3ltQtJaZdjeu5JhPFld7%2BMX5i5sNJehuUZ3S7yXbQF0yqQKu1LGUkljSr4dno6eFbaSA%2B65sR99IdbdgQljjAe780q4uL%2FLXspZQI4D1Dz%2Fg%2BtaGw5iWwei%2Fydj9DfpOSIVgMaCyw05WDd03UoOXWDPqtJ%2B5FFCvXJhOwCJvgZQZ6SPoBQ%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/404051515814?epid=23041457686&amp;hash=item5e1358d9a6:g:PwcAAOSw0B5jmLqw&amp;amdata=enc%3AAQAHAAAA4AlqlhVVVvtETtoP2U13Lc7w0MQ6XiLQjgsida7EL%2FC36iw5h15psxDlwEncGwHyot%2FNGquPtwrl9s5P6DbpKoorEVl1NMDw%2FEwrm59dl5J8TRAFaR4r9Gdm3ZDMZc0wI0cNDs2Mq6hoYf81qc%2Fnbq%2BAZxPZzDg%2FvHtAsZz0O6826ufsq5d7FCV2umlxMsCMvQ3fTYdJ6TPZ2bXqa%2FJd6d%2BACTJdYsGw6HFU%2BXAMUjN7Bnh928z42wlJn2jTK1YFmlV8AYVkl8qY%2BfBPEdi9SlB0QQkJ%2F8Y13GQLkKku2Ql1%7Ctkp%3ABk9SR6aayoOjYQ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -940,18 +940,18 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>555</v>
+        <v>401</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de França</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>570</v>
+        <v>426</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -966,16 +966,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Novo anúncioGIGABYTE RTX 3080 VISION OC</t>
+          <t>Novo anúncioZOTAC GAMING GEFORCE RTX 3080 TI AMP! HOLO RTX 3080TI *wie NEU* 4 JAHRE GARANTIE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/134366479450?epid=6041894992&amp;hash=item1f48ddc45a:g:dWQAAOSwYMZjmjWc&amp;amdata=enc%3AAQAHAAAAoBSvD2inlonuIcrF5uDOKvzyBiTuy9ZKDKzHW5TJ7N0EAf9wCM0UXi3LAYlFKUM%2FllY2xUuNf5cgjhH6xS3lsyyzfS3wg6jfWSgVf9IYuUdEiEXQIo%2FQUsgC5AXXLdo7bIPf7e%2FS2%2B89VeGlbafyfC44w2TJVvdZ4LygMGlfW%2FQFdoRjMg6OutaDZE%2Bmp2lMBxuRr3c5ZfHF%2FfTer3OZIA0%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/295419024283?hash=item44c858939b:g:~eQAAOSwHNRjmoOK&amp;amdata=enc%3AAQAHAAAAoKEnvNqGxde0LqgfpC35Og6Opn4%2B%2BnMOtIqGp6H7HubFHA8qWEedwRpv8cWjcjgSqZtVgbo29TW64K4FoS8lqB%2FvfUdwjFeKbWC4nrwU8jKYTqZXdsWOXUfDKeNKifO1YWkM5cc2kpWvjsOTAZAgvFTm9o12u9g2BkZEjyg5vHZpr1gB6jA6BnDP%2Bmm839xdDhBkHLbNp1845wlxu5LlU8U%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -984,18 +984,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>575</v>
+        <v>401</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>de Bélgica</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H13" t="n">
-        <v>591</v>
+        <v>441</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1010,16 +1010,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RTX 3080 EKWB Custom Wasserkühlung</t>
+          <t>MSI Geforce RTX3080 Suprim X 10GB DDR6X working fine + OVP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204182194587?hash=item2f8a35099b:g:yN4AAOSwQWFjlAL8&amp;amdata=enc%3AAQAHAAAAoHOcC7AwILy5JLx3LWUEwfLY0vXe6k3KJuEZiBrXJZ2VSOcQmRD%2F0LfUJxDPalJM862WPsotUQO21296daIyWxKnq7QS2l7PHFPzpmkZbFjpXM56mwEo%2F7YfzeRsUB50ID4PT1g4Jn97kzkpNPV1lSzgKrRo6yHDKJy7QnUxee7VRo8jQ7dbfiJFXIqP6IxK73aybkJOqq7esYhxL7ik%2BZg%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/225298849319?hash=item3474db9e27:g:BDIAAOSwwX1jgyiF&amp;amdata=enc%3AAQAHAAAAkLpZ1CMYM53O67dqkFwy6JcALCRLYbE19kJiXoyFgeaRbSyuPTa4V2QGtvb%2FQl26NITLXSUUE%2F1YPInmEJy1TsZEHb7H9gefV7ziUXEc2qQwUAbDnQa0qCSkIGMR9POGHPahYZEoe9TfGWIw5BuceN4SSBm1yaR0er2l1CNGDjO9AQADI9fKVZEjVszpd0me%2Bw%3D%3D%7Ctkp%3ABk9SR6SayoOjYQ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1028,18 +1028,18 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>555</v>
+        <v>438</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Áustria</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>605</v>
+        <v>456</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1054,16 +1054,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EVGA GeForce® RTX 3080 FTW3 ULTRA GAMING 10G NON LHR</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 OC 10 Go GDDR6X Carte Graphique</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266031573205?hash=item3df0b7a8d5:g:NU8AAOSw1uljB2xo&amp;amdata=enc%3AAQAHAAAAoEueXhR%2F2OpYe6%2F3CKstYNk%2FtC%2BGNYhJ%2FfCadUI9%2BwEOGDMCbWuLpchcImCA76H5A3AVgkDyRjdvNGOVRtg%2Fhu%2FbCUiQjDwGjpE4UZRPbxAEmRxQX4GNWvfnHVaDHPWyrbQTidv5mEm6xNFtkqhmEbDTbX4fHKBAZq9KIDhbaFNqb8ncZJqyJE9dwi8Ab7ZXztK9Ya8qWTn%2F%2Fh2Q%2BYLkZjc%3D%7Ctkp%3ABk9SR6aT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/404051496392?epid=25041873530&amp;hash=item5e13588dc8:g:RDAAAOSwhTVjmLkW&amp;amdata=enc%3AAQAHAAAA4OX1tOYfley5IT%2FBTSA3Eo%2BLPjiMSVanTiacU0DvtAKwveWSr2%2Btkb4nqIBFy5slT8odptVzaGb1pFAXkFxBFaliYpVlGmRWO6D669kFD91GodDrxEPPsTakDzNLK%2BmfnZvKt7kQjdwFQxMXKWZ9fXxTp1uCVy5hDoVmIBu26WsBYamgtE7gj9T3kv3QepzFkF%2FZaO7LWazmbbOCY6ArBhGZ3dMNKRVTTYjsTzICk1chkFfiMkvsPBJ7lZNVy%2FvWhAhEKVV8nY3NR2W02RFYAI%2B3K7TKo8xRK9696zn0bF7q%7Ctkp%3ABk9SR6aayoOjYQ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>612</v>
+        <v>453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>630</v>
+        <v>483</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1098,16 +1098,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 10Go GDDR6X Carte Graphique (GV-N3080GAMING OC-10GD)</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 OC V2 LHR 10GB GDDR6X Tarjeta Grafica</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/195509924765?epid=23041457686&amp;hash=item2d854cb39d:g:~ikAAOSw0E9jkaTw&amp;amdata=enc%3AAQAHAAAAoFSnkoETAJcd8dMxGMZeDGczlgdR%2Ba0bp%2FzbguWKNLqkOSQsLh6u4D%2BpEE1UIWVaFz2qyA3yWR1TGc3hd6jpWNlORvfR%2Fs9XKM7vQqyHcQhuXXFImKHnxIbV5jErOKd6TLLqkb52PHm59pUBA7ZdjEhe5v2bDECv%2BBc6cK27dErDCcnBraoH3LdWzohARoqjjz8LVGIeg4rDhgsBH70QaBc%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/255877482888?epid=22050522091&amp;hash=item3b937c8988:g:2XkAAOSwbs5jmPhf&amp;amdata=enc%3AAQAHAAAAoK%2FBIwmrlDKEd4wYzOLTC7oGxGMWARbzbGaZsYxGEMWZP0awbFhyh2fesu%2BY7JLk44M4WuF9SSNmAbp3N1U2q84%2Bmf3TLcNb2YpoZjtk6aBXf61XbJqhY%2BKIQ4OvX%2Be1fBtglJHehSU%2FKJeZKPWTCCcvPMkuxbd1s1IeOs5akiBesWcsznTRQhIP89lkZmMagqI0cEEqEHtFVWcc1qsH4Bg%3D%7Ctkp%3ABk9SR6SayoOjYQ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1116,18 +1116,18 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>625</v>
+        <v>511</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>655</v>
+        <v>530</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASUS TUF-NVIDIA RTX3080-O10GB-GAMING (V1 NO LHR) sin caja.</t>
+          <t>Inno3D GeForce RTX 3080 X3 LHR 10GB GDDR6X Grafikkarte (N30803-106X-1810VA44H)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374405297154?hash=item572c4b7402:g:TucAAOSwzahjZDe6&amp;amdata=enc%3AAQAHAAAAoJnKO1osgvSsRjCDxX6sUZmFixNKvqTc3q4FPQF6C02YNmv7uIHlsXd3Rv3w1want0yY91soTm76%2BotAdYRFlmTsWXyMlhXhl%2F7Q43%2FJ5IN5GT9eY1pNFcWRRjmlolUuz9Kzq2SGOAcYFboRrFwij8xbaMgK%2F%2FG0oK2k7%2Bcm4HYbZ0oEvAAU10DHPRjSDfkOJfppyDIbNja%2FLvwOgVy8J24%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/175528927975?epid=18053884757&amp;hash=item28de56e2e7:g:9x4AAOSwn0xjlfXX&amp;amdata=enc%3AAQAHAAAAoKZja%2B%2BjYkfTiPtLwQKCdB2NCRx3g3BmAoEYy3ltQtJaOeT4p00xKLOV4OuJJgCcli7jpcIZkA1GUDD5n9GMAl3qlamQxQa%2F695CRN%2FH4oLlFJXGJWyObN2bio8hu0%2FTj2ZMNpwSGcjfWIHDMd7RHK3g%2B5wcM9cKB9Slc55Acygg85ma7NrXLOKnxrIc0%2Bh%2FMhljIYeVqhw8tnk0v5CNMZw%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1160,18 +1160,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>630</v>
+        <v>555</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>665</v>
+        <v>570</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA 10GB GDDR6X Grafikkarte</t>
+          <t>✅ NEUwertig: MSI GeForce RTX 3080 VENTUS 3X OC 10G inkl. Copper-Mod</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225289640703?epid=25041873554&amp;hash=item34744f1aff:g:g0MAAOSwMf9jPxKT&amp;amdata=enc%3AAQAHAAAAoOtoi6ijug145Xm02tY0qnjo5qpVNyo2IUeAeQBT%2FEiGo8kD3HQl%2B6l0i2G7zdz8C30h5hDuM0i1zzPvikXlBIncs5IoYZnYc9j9M4MpX2909xcOWaLbfKI%2BAAtFwTrSmqtx%2F8GiVQDy7uvS3bAaQCv3kp72LHDAPYIA7CdBmTmbJXwZnT57lOIeXMCcuh73dmHzEdVeS0%2Beo1Cacz7kX9c%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/175527696209?hash=item28de441751:g:BuoAAOSwq1ljlN1d&amp;amdata=enc%3AAQAHAAAAoOT0CqdafMBvxO8lsB%2BUouM1DUefobsKQgO2tX%2FhtoXMOfiRbh57edwBqRXY%2BjMDXeQL3cixQMRrVBTD8kTpDFiWmreXIB8iQjZrAE98WXLyOHqyHvqcHY%2FO6WOQhnhl58K%2BaUdhcsBfd0hwjkJ4EdbZyyW9%2B5e0TQ6LCRz2SIv2QiaCt8jugPGxYhp458kKm%2BXSrH5X1THz64WfR8xG8B0%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1204,18 +1204,18 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>de Eslováquia</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>668</v>
+        <v>571</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA 10GB GDDR6X Grafikkarte</t>
+          <t>Novo anúncioGIGABYTE RTX 3080 VISION OC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225286712180?epid=25041873554&amp;hash=item3474226b74:g:g0MAAOSwMf9jPxKT&amp;amdata=enc%3AAQAHAAAAoK7mFb8SWOoBhLhSnLjVavqA1C7t4B8zLhdoE6ntbeiOu2n0Du2hhJVBXc8GWaqYUuYcudvldny5l64eTavCtt974wh7yisLsAvixAtmyyr1rHCRWSrfDGwZ8tI7p5xjfqGjSKbwgwwxZzZJFNvOLagep1bPaURc0xtI8orXa8zyCB7fqGuLh1iuXCITH59GxccPP%2FZKeyfkg03F4ZC7Yps%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/134366479450?epid=6041894992&amp;hash=item1f48ddc45a:g:dWQAAOSwYMZjmjWc&amp;amdata=enc%3AAQAHAAAAoBSvD2inlonuIcrF5uDOKvzyBiTuy9ZKDKzHW5TJ7N0EoADG896gA2AUSGrNZIGZS5VgnDgKi8NJvGl9W1WN5EIyYFTyRnu9M6IZwjFqNNwIKQM60ViTLbwYMi0BQCA5TbXqWo9TPmW0T2TLvBWG0vxNmOW7SedCHV0p%2BPD953qiXc6JdmwqlJwWEaC5V3XBtu14EIJIwie769rQkDqB1%2Bc%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1248,18 +1248,18 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>de Eslováquia</t>
+          <t>de Bélgica</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>668</v>
+        <v>591</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1274,36 +1274,36 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 Ti OC 12GB GDDR6X Tarjeta Grafica</t>
+          <t>RTX 3080 EKWB Custom Wasserkühlung</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/155301073429?hash=item2428aa5215:g:aawAAOSw8Sljk43G&amp;amdata=enc%3AAQAHAAAAoHqRs9kO2EA7MPICqdvyCnrBSRGmeVICkGu5f6%2BPbiVlnwPso4UXoTm3KnX2iL6b1mNR3Kp98LTsO3OUFMihu9DMga776xO4AF5LmELlH8kynEkcTwR843cEKWFfJ3MIq6z08BglQzjIp9ej0JdUiRGOCu2ICnNGKMcJ3Z418PYKZgdYnsYqcjFD%2BwaV2hdRrb1tnI%2B93zyutu01VarsVh8%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
+          <t>https://www.ebay.com/itm/204182194587?hash=item2f8a35099b:g:yN4AAOSwQWFjlAL8&amp;amdata=enc%3AAQAHAAAAoHOcC7AwILy5JLx3LWUEwfLY0vXe6k3KJuEZiBrXJZ2VmueEDGLgwNOx3SyhHffVHhUI03VjS5te90QB7%2FwXea30Y3bCSVH3V%2FzdFpbJtNlJELoNTuzA3OeIeniHlWvBLToZALam252zXZCq%2F5zpRrcN9enwXq6RQcbW04M3uCL3wdauL8xVYWphKh4v8a4r1Elv%2FUsV6TLbUK0CoVkwRC0%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Novo (outro)</t>
+          <t>Seminovo</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>620</v>
+        <v>555</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>675</v>
+        <v>605</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1318,43 +1318,307 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EVGA GeForce® RTX 3080 FTW3 ULTRA GAMING 10G NON LHR</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/266031573205?hash=item3df0b7a8d5:g:NU8AAOSw1uljB2xo&amp;amdata=enc%3AAQAHAAAAoEueXhR%2F2OpYe6%2F3CKstYNk%2FtC%2BGNYhJ%2FfCadUI9%2BwEOMWhKptpFZ253vqCEOWUzeqXwQtRVnpjd5KNHPWwYuQaGk8DKqomXsiLB0hYjXF7je6C8HrBi8wv24mgZA7lkls%2F7ubNbio1Qny6%2BJkBQLEJ1XqzRNJQoHUrTdAV7wLjqOkBYj74ij6AXPVJClPPXCoiuEFnPqr4KYmxn2Qxk8zs%3D%7Ctkp%3ABk9SR6SayoOjYQ</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>612</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>de França</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>18</v>
+      </c>
+      <c r="H21" t="n">
+        <v>630</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GIGABYTE GeForce RTX 3080 10Go GDDR6X Carte Graphique (GV-N3080GAMING OC-10GD)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/195509924765?epid=23041457686&amp;hash=item2d854cb39d:g:~ikAAOSw0E9jkaTw&amp;amdata=enc%3AAQAHAAAAoFSnkoETAJcd8dMxGMZeDGczlgdR%2Ba0bp%2FzbguWKNLqk2WUAIYz7tBtaOqd%2F2Qd8bmomGzR6yjn%2FUNxP4ucOcULGHaRxIGT7%2F4n%2BnJJSG%2Fxb%2BwS266GcgL60tXNgfZ1DrEsh3JrwuQV1R0Lik%2BMrW6Tjb5h5WrKcXdwINp%2FlAwItK4Q73R6JLHmiXqUE8He6yYQWbwBkIelWkSuYhkBF8ls%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>625</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>de França</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>655</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ASUS TUF-NVIDIA RTX3080-O10GB-GAMING (V1 NO LHR) sin caja.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/374405297154?hash=item572c4b7402:g:TucAAOSwzahjZDe6&amp;amdata=enc%3AAQAHAAAAoJnKO1osgvSsRjCDxX6sUZmFixNKvqTc3q4FPQF6C02YPXre5X5KEddpa%2BMiX8TutXry1qzX3E8QsZBME9G%2BA5vuszDpH3XUFRhfneFpEizwbkwlOMh2E79chcjHmpsjowY%2FJ7qxGea39fI2gkdsFRC1kdyxzjsQ9Ihjl4bt8xJt4DGc%2FnLcTmAdgWeoUYFnvTgRN9uZ8b1LVbvC6vC9SvQ%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>630</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>de Espanha</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>35</v>
+      </c>
+      <c r="H23" t="n">
+        <v>665</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA 10GB GDDR6X Grafikkarte</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/225289640703?epid=25041873554&amp;hash=item34744f1aff:g:g0MAAOSwMf9jPxKT&amp;amdata=enc%3AAQAHAAAAoOtoi6ijug145Xm02tY0qnjo5qpVNyo2IUeAeQBT%2FEiG0ZlV24xKWw8Eqs6o8wViD5Qs67Ye%2B1p1mrurOJsrZ2aLAT0k1l5Zu7%2B2mdpZD6l3jwLoTy81bUYhEtFXzyJ5d8cMzVsoXQp1v%2F82uOEl2PUzk16hazslEb2U9rvL9trviq2tNOH7MzdsDr%2FmfYBPpYsb2QB5CLTNtQH7YQdM%2B%2Bo%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>639</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>de Eslováquia</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>29</v>
+      </c>
+      <c r="H24" t="n">
+        <v>668</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA 10GB GDDR6X Grafikkarte</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/225286712180?epid=25041873554&amp;hash=item3474226b74:g:g0MAAOSwMf9jPxKT&amp;amdata=enc%3AAQAHAAAAoK7mFb8SWOoBhLhSnLjVavqA1C7t4B8zLhdoE6ntbeiO5hQAy25rWf2BjLKcUPlYDDUEr2QDkGM0NY4RpSx3U9E76desBek7Gou0j%2FKc3pWe9WIde6TFcYXYEJnf72%2Bl%2Be1jdMzTsLtYfEHaTKyYBDtkliTVugJlY%2Bo5aVILS6aUnSHztrtYMW9m9h%2BMmnc7lu%2FxjdCEHeshCzNsDtozAiw%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>639</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>de Eslováquia</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>29</v>
+      </c>
+      <c r="H25" t="n">
+        <v>668</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GIGABYTE GeForce RTX 3080 Ti OC 12GB GDDR6X Tarjeta Grafica</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/155301073429?hash=item2428aa5215:g:aawAAOSw8Sljk43G&amp;amdata=enc%3AAQAHAAAAoHqRs9kO2EA7MPICqdvyCnrBSRGmeVICkGu5f6%2BPbiVljphaJpbkvEhJMgcWauSCAjhmEb%2Fm%2BJM0fFWTss1qyFAthTVQ7Xh1QOYnXPwxs7eiG79%2BGTpOaW6ftjCJdPtQ5pkp9DfHPn5sRPm4qVMlmtvxzqi7ybqMidQk0KcmlK1t4YCxUpqHs98hOObbOwwysmQh%2F1a5tMaDxoWc4%2Fvii%2Fw%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Novo (outro)</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>620</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>de Espanha</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>55</v>
+      </c>
+      <c r="H26" t="n">
+        <v>675</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Novo anúncioMSI GeForce RTX 3080 Ti VENTUS 3X OC 12GB GDDR6X Tarjeta Grafica</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/295418880621?epid=14047876923&amp;hash=item44c856626d:g:vpkAAOSwSC5jmw99&amp;amdata=enc%3AAQAHAAAAoJy586DAlOmfcPCL%2BbIac5xONiBkBxbyuA9oDopF4GYash%2BXpaXM6KWJuokcpMN92mOVjUshzlVrZ0STIuT2%2FHFGiFXEJAqVSTSXO%2F4EkxwTFUjtC1XJ84h99S5KfNtGPidNwyLBQqm0vWTSIKtwMYzrRmbjvtrW80nJ4O9irYOnO8wX78Cx%2B5XFNbCyHuSiOMdqkDPgsdUmznn1oXWcEDM%3D%7Ctkp%3ABk9SR6iT_fWiYQ</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Seminovo</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/295418880621?epid=14047876923&amp;hash=item44c856626d:g:vpkAAOSwSC5jmw99&amp;amdata=enc%3AAQAHAAAAoJy586DAlOmfcPCL%2BbIac5xONiBkBxbyuA9oDopF4GYaJLJPaKVVpwwYK7kIy021yjqEdVNOYwqjQII58Xen1pvPsKtrf9HhwacfVlXPravTMeQm2HQUQe4%2B9RFKaSJTzbqDdvLB8TxSA5d1lLc2i1qwvr61gqLoCihq1x5EIrj%2B9n2SGoKLsD2psA%2BI9lmtrDMjkFdlb20EW8p3m7y1E3c%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>600</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>de Espanha</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G27" t="n">
         <v>100</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>700</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>No other purchase options</t>
         </is>

--- a/results/rtx 3080.xlsx
+++ b/results/rtx 3080.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,10 +479,15 @@
           <t>Purchase Options</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time Left</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -491,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/265048648447?hash=item3db6216aff:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoAkedz3J3RKbUB9y5GquAUg23%2Fhqppem%2FJ0EbUnfn7b4bD4z%2Fbg3a1Z4CPN92wovLj6mehMe%2FTAxS9a95%2F%2BvPmiqHNxjv8hesIDljOwloDzNoT09oNGJKoWU4prfaaRdy3vryDOohWjyyQq%2BWv8r%2BjJaaXfokBGfjGiOh3W03uMRuyTxRN%2F2OcnSnvwyFXmuMs7mNe4p0%2FCOghbfI1HwuZ8%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/265048648447?hash=item3db6216aff:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoAkedz3J3RKbUB9y5GquAUg23%2Fhqppem%2FJ0EbUnfn7b42Ub89ddQ9vbh1H1sWwIf6Wu3eT%2FmNM%2BwRLqrMCHm2%2BCZNyTBK7KxBiCLMoPZIs71We5JoDtFEexirKutT7h6bnPxaF%2B6S2GByCNyF3jLTwQDb4JKAUMPt5qGI0OCKSjBghliTOCEGckYGQlsjXcKUaDaHW%2BBGMgQvF27fZAnHik%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,6 +526,11 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>Comprar já!</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Not specified</t>
         </is>
       </c>
     </row>
@@ -535,7 +545,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255870438830?hash=item3b93110dae:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoDpn99LpZ%2FpMGIqRcWnoeUe7Q25xpZEvEHzeiVKm%2F58Mc%2BmyHsPGTThyV0DBDwubEThCwdlNPkIDgUa0EZPBQHo%2FlrI%2BWu5CUj5rfg4n9WUDIwqEThKcdeZ2TCsjH%2FQhnpkXZGMT%2BW%2BAS8PWiyA7JhsOcQyGuCBRBSVGk%2F%2BrIvRad7votLok1BUTet%2FkTGMFWJXLU4Ey%2BHXNl%2FBE30TMtm0%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
+          <t>https://www.ebay.com/itm/255870438830?hash=item3b93110dae:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoDpn99LpZ%2FpMGIqRcWnoeUe7Q25xpZEvEHzeiVKm%2F58MsYJ3UgsdXoo03EKG%2BnumuJKT19Xx0iV7o91INNQSuGOhpMD%2Fcne1tbjc4bBNPwwQnfX5WPINNpIxitdVAOb7ljmBWeG7k3AkYgSul7Af0t03C06PaTZY1c6tKESAu0IQasp%2F4I5XI1%2BJr5gDXZlp4xhAzHnRKVj%2Fl0OhGugeGvQ%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -567,10 +577,15 @@
           <t>Comprar já!</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -579,7 +594,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255870478858?hash=item3b9311aa0a:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoBr93JYMF6T7QucwMLp4GgpSvWflswoUb%2BAGvILgzZCQLsbgLLVx57HrsxbsIpZgn%2FvfjxXBs1XJZq%2BriIXchKyNhpu9jpVLe71hB0H3s4JdFAPKav%2F1bYJ9j72qx1A2Mp6Srzlvst3sr5yf%2BjnbqPsII8q1a9BtneBF6lvITfd1cIhKyoDTncJtEFk%2BBQju2aQMRNWRxL1Al0l5dYnfFP4%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
+          <t>https://www.ebay.com/itm/255870478858?hash=item3b9311aa0a:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoBr93JYMF6T7QucwMLp4GgpSvWflswoUb%2BAGvILgzZCQQ9nCjOuhvYRdGFudmkqwtNx1XwjB4olFGAdcWhNH9sTM38a8By83LMITq79%2FD6NPzVWRF5QmoZ28mekfgL3LRQ4FDxuICnnjOAtycajY0JJwKwuyIKYObFyr35LKt7TvadWr4t0ELQ8jFjZO0%2B68PYQ6iz9TQM88sLlM%2FEN1pJw%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,10 +626,15 @@
           <t>Comprar já!</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -623,7 +643,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/275548475658?hash=item4027f8110a:g:goYAAOSwfupjUZJ2&amp;amdata=enc%3AAQAHAAAAoPkD7KzYPJcMTcPC1u4znHxGHlm3bvv%2BvHlgb69VEtcPJk%2BId01CkGovfbFMhcj%2BwrPi0jADhAl91AERnL0VPAUZ%2BIb75yZgk%2BbIhgaCzdnU089PiMnTHJGraLpVvubO8j20vIAizB%2FmpHXyFJrTP11HzFeCaY0QUFWQqcsBxbdft10%2BFdzaYtqFSoQ48KIFm34wqFBA6UoX9dUhXntDZho%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/275548475658?hash=item4027f8110a:g:goYAAOSwfupjUZJ2&amp;amdata=enc%3AAQAHAAAAoPkD7KzYPJcMTcPC1u4znHxGHlm3bvv%2BvHlgb69VEtcPWa7CVlqXN%2B6xf11K31OaKLV7ZzWpKTRaKc%2BuaKezrDXlGoQlfQplj9PZ9Vfrcv43l8xgTiDaUy6xuZBvQGORRgW5dtkXQatc2FS8Dl1B7hNs5mRtjGgr%2FH2yp2rm4vLSdOSX35YObfHkJ2lwVjcW1okiJ%2F5kmOgkuJxDeyLY7XI%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -655,10 +675,15 @@
           <t>ou Oferta direta</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -667,7 +692,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125654019352?epid=15031199219&amp;hash=item1d41902d18:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoPp4NkA%2BJNjmWcOGjDajT0zTkaWaI%2BCosjgB9nlPlpDWeGizpLP5DZ18odU9yM3xPiORbFNKvXv%2BlkXeXFjnyf0IygR%2BgxY0x44YgI9WFr%2BL%2BL9yU3%2Fhp41gmNZZHlryloEheRo13BOZ7CdITdexV4gYEtUpdIltOPD36ezuEhgYpLdrj544VJzkXPzpjKj2xsoF4%2F6wnuYb%2Fqo73H%2FdYDQ%3D%7Ctkp%3ABk9SR6SayoOjYQ</t>
+          <t>https://www.ebay.com/itm/125654019352?epid=15031199219&amp;hash=item1d41902d18:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoPp4NkA%2BJNjmWcOGjDajT0zTkaWaI%2BCosjgB9nlPlpDWwol69vCaanXAibAosPBzSrl3KSiYsaiAqCHA0CB1CUK0xIGiOK7I%2BvarfNG%2FS8QazvLMWbX4rT6cKwhV4MszvCe67jIcW9Q5bWUfW%2FmX0czCB6twH1ghYZDvLWkKonbTtuHRkUmJ%2BrG5pIYWtsbuVF0R7gz2UoboV%2FravTsE3SE%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,6 +722,11 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>Comprar já!</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Not specified</t>
         </is>
       </c>
     </row>
@@ -711,7 +741,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404037111469?hash=item5e127d0ead:g:uWUAAOSwpX9jjyRX&amp;amdata=enc%3AAQAHAAAAoPlCdtTId7uJBCKyOM%2FrPnBN4ZnmBbxapA6T7UeEh%2FpdkXEZyjilMI%2FYdEno9cXp59RUkdV2SLoQ4%2FOTtu3O82BIH4okVuxlNMCKimM900S4RbKjYOf%2BOnuxU7fRkvBv8R9wRQ%2BJpwIumn1YjXgWp3z0lV1UH1c1GXI%2FFbg%2BvuGJbPs83Lz864V3hXxmSWN3lszJPRT5Th5R%2Fi2XvcKXv1Y%3D%7Ctkp%3ABk9SR6SayoOjYQ</t>
+          <t>https://www.ebay.com/itm/404037111469?hash=item5e127d0ead:g:uWUAAOSwpX9jjyRX&amp;amdata=enc%3AAQAHAAAAoPlCdtTId7uJBCKyOM%2FrPnBN4ZnmBbxapA6T7UeEh%2FpdWPji7FW4roQrC%2B6R5QYnqQ4%2F8ETEPdmDI1I6K%2BlDAcT2T2%2BNiUMwk7LKEB1J2gmNtCQcLf32zm94X%2FYOAUHuboNmDOw49x3usucWcNrIqLcA2LbLAysPi5GGB6RgS0AUgJ2n%2FcEEJjt%2FvWBGyh0eh3SKDBkgTuWztxkK7WZcpcM%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -743,19 +773,24 @@
           <t>Comprar já!</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zotac Geforce RTX 3080 Amp Holoback (incl. OVP, working fine!!)</t>
+          <t>GeForce RTX 3080 X3 LHR Grafikkarte - 10GB GDDR6X, HDMI, 3x DP with warranty</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/285075658877?hash=item425fd5587d:g:ppUAAOSwC5Fjgycl&amp;amdata=enc%3AAQAHAAAAoMDoBdpEx7qldxrx0QQbT2FiH7tetgNBcvD%2BLkgH04GPnhIGYL3AT07JeYxwAEnurnD6TUOdMj20%2Bq69zZAP7WRXxbXKN56%2FvPq8wRjNHRkGqrpPZC4ukW5tGQV5l6H1BBtWxfae%2BnBgD71OZwJERiajVu1BoLRkrDeRvN3WEz55oeGID3XHTmcVU9umxlN7%2BHapWKEeLbwWeH2JJxX%2FN6U%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/374405382109?epid=18053884757&amp;hash=item572c4cbfdd:g:fc4AAOSwVWtjmL5j&amp;amdata=enc%3AAQAHAAAAoGN22skkc%2BOJYCrMQdvd8p9RDZ162IxS11ap9UISUBMYTNnImE1ENzAF2B0gkehv8mI28xsb0IKp7QuzNDVY9VD6z2Ra3UzzYqwJj%2BBYbiQMDzWuRjcmyx2gDH10BoHG4i%2Bd%2Fl1rey5m8qj9SvOdkLh4Mzp9eHcNuFe0R0UBmnCubsRZS78%2Fkw2RYzNzKDxCVLR0Wc7PFbgg7Xhom8nEQJM%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -764,18 +799,18 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>de Áustria</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -785,21 +820,26 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2d 3h restantes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GeForce RTX 3080 X3 LHR Grafikkarte - 10GB GDDR6X, HDMI, 3x DP with warranty</t>
+          <t xml:space="preserve">NO LHR ZOTAC GAMING GeForce RTX 3080 AMP Holo 10GB GDDR6X Grafikkarte </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374405382109?epid=18053884757&amp;hash=item572c4cbfdd:g:fc4AAOSwVWtjmL5j&amp;amdata=enc%3AAQAHAAAAoGN22skkc%2BOJYCrMQdvd8p9RDZ162IxS11ap9UISUBMYVbQBH9avJLbyCihr%2BPyxDkWbLwOUzAr%2BOq4CZs1FROODPtOUK173pLRy%2FivJTCkdYxfCCVaNVVQrWOleGWUOxKpUyvWOtSz8kCLHRMFrIeKQ1VViNAgK2XuDtvrR%2FiWQbvmKlBptFQsOVrUjOOyAsgiwMfWLq9Bf%2Fh82RjpVqH8%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/144855657794?epid=5041892846&amp;hash=item21ba11ed42:g:itMAAOSwV8pjmj7g&amp;amdata=enc%3AAQAHAAAA4KAKAyirU06xOV04ic4GIOrJwrsuY6SyT93al13lMxZCI40bGUly%2B6QiWTSnAUS2QsmzIwERUxwz7jeZGCFrLZBYLB%2BPW%2Fu06OKQEqMjk29A3t5XFuOyROEaE3zuUnL%2BaPlgEjLB3I4pc%2FCrGEQM1pLKXLSFEUzjwxy3aLEyfcd7n9xtAQlsQ1%2BlUl%2FuxWm67ijkzTDge1Cb8Z2fJuAQ9rQUwz6elhzvUf7iFqRnYjRUUp959YgODwcRo4qNip4bOxZRW7Km0W7AC%2BEgeiQtp5rwZLRpnZA5F8%2BNEzuugder%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -808,7 +848,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -816,10 +856,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>274</v>
+        <v>416</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -829,41 +869,46 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>5d 6h restantes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
+          <t>Novo anúncioASUS TUF Gaming Nvidia GeForce RTX 3080 OC 10GB GDDR6X Grafikkarte *TOP*</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJkkcfd52q0BOSYnCRZOhYWo0X2Kt2HGTRug0TaTh7pcg6%2Bu%2BoXe6AcEIrOzSrxDHNxgk6GuJaTNJOQ1z8H7a7ef0kJgx%2Fyani4S4AIMgyrMB9lv1MKuiBtJmf03KmHxqUJk7wzLFM9lEcrhndgWfsowKrhNFIuGv%2FfUHIFSFtNxE%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
+          <t>https://www.ebay.com/itm/354454701370?epid=3041889918&amp;hash=item528725853a:g:KzwAAOSwDDtjm1WU&amp;amdata=enc%3AAQAHAAAAoNGmhD3W5BEq5Rat4uV5omV211Xq%2FWVvIj2eISKg3EOFb%2BZl6u%2FptSqfDx68qGgZabDj5NPni%2FyxEdIYCJ%2FMPE7PznGqC57owGYxq77kUk023pZy0mys9njllNvse%2B4OJFFFUdohYFwwfTXqvFigyPuaYKWWAUtC9PJkshBDvaCjvkiE6A677rLKCyRkHdzPSbAH09qBErtWj6ln7k%2BDtis%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Novo (outro)</t>
+          <t>Seminovo</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>de Bulgária</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -873,21 +918,26 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9d 2h restantes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Novo anúncioNO LHR ZOTAC GAMING GeForce RTX 3080 AMP Holo 10GB GDDR6X Grafikkarte </t>
+          <t>Zotac Geforce RTX 3080 Amp Holoback (incl. OVP, working fine!!)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/144855657794?epid=5041892846&amp;hash=item21ba11ed42:g:itMAAOSwV8pjmj7g&amp;amdata=enc%3AAQAHAAAA4KAKAyirU06xOV04ic4GIOqrOQaSBObXQIDkM8SBodlCfDwovVpAFtI%2FVkZlz0df1AjUkHgqzdl3vF6%2FkatSnK4tu9qLrtr2Y0JqKqKgmJUKr1PfOFrUGPKku0uMDopqD729wcSIC5rkgtQA1A%2Br5feoU3X7Yl5g42y20atVqo7U3w0xHoiB1v%2FpoDdjyDWiMmNWif0VM69w%2FrgUjMr%2FJ7erlHYu6C8USz5hzE5if3JL8zZBOVqdL8yyFSCHUfn0cpwK83AB7VjYidDWSDOyn%2Fc8WNwIeRc%2BGtqGkEiVZ52e%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/285075658877?hash=item425fd5587d:g:ppUAAOSwC5Fjgycl&amp;amdata=enc%3AAQAHAAAAoMDoBdpEx7qldxrx0QQbT2FiH7tetgNBcvD%2BLkgH04GPmPA9z0e6D0EFyo%2BYakVczeHfY1BPvM%2B0XQy2g2BiHELSn1%2B4CkpJm80y0Pnt%2BlOlpyxVSTNrz5Zc2AFNvz8lGI9nZIydtrQKXjF1t%2Bkv4hL%2BVe8cZW%2FeXqy6WRKgJLPdT93GtLky1kbgdPmJHU0Z8YRGUOag%2FZbqFtlv6yV85Lw%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -896,18 +946,18 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Áustria</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -917,26 +967,31 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>4d 19h restantes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 10Go GDDR6X Carte Graphique (GV-N3080GAMING OC-10GD)</t>
+          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404051515814?epid=23041457686&amp;hash=item5e1358d9a6:g:PwcAAOSw0B5jmLqw&amp;amdata=enc%3AAQAHAAAA4AlqlhVVVvtETtoP2U13Lc7w0MQ6XiLQjgsida7EL%2FC36iw5h15psxDlwEncGwHyot%2FNGquPtwrl9s5P6DbpKoorEVl1NMDw%2FEwrm59dl5J8TRAFaR4r9Gdm3ZDMZc0wI0cNDs2Mq6hoYf81qc%2Fnbq%2BAZxPZzDg%2FvHtAsZz0O6826ufsq5d7FCV2umlxMsCMvQ3fTYdJ6TPZ2bXqa%2FJd6d%2BACTJdYsGw6HFU%2BXAMUjN7Bnh928z42wlJn2jTK1YFmlV8AYVkl8qY%2BfBPEdi9SlB0QQkJ%2F8Y13GQLkKku2Ql1%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJ9hqFXT%2F5EQoN91HPYx59UX0%2Fyi404BmdlMgk4RIb77ZgapA%2BkJObOzM%2Fe16ksuSoTtRtW30bzgeyZkdDvgqk%2BWDPFc8GaF4oC2lBG9JBMZOVO9Et01xc1rt0bPRSLpHBJnDcEolDm0gXh7TRC4WGjIsDk1mqVq9KXVFiFs0YL14%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Novo (outro)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -944,14 +999,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Bulgária</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H12" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -961,21 +1016,26 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4d 21h restantes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Novo anúncioZOTAC GAMING GEFORCE RTX 3080 TI AMP! HOLO RTX 3080TI *wie NEU* 4 JAHRE GARANTIE</t>
+          <t>MSI Geforce RTX3080 Suprim X 10GB DDR6X working fine + OVP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295419024283?hash=item44c858939b:g:~eQAAOSwHNRjmoOK&amp;amdata=enc%3AAQAHAAAAoKEnvNqGxde0LqgfpC35Og6Opn4%2B%2BnMOtIqGp6H7HubFHA8qWEedwRpv8cWjcjgSqZtVgbo29TW64K4FoS8lqB%2FvfUdwjFeKbWC4nrwU8jKYTqZXdsWOXUfDKeNKifO1YWkM5cc2kpWvjsOTAZAgvFTm9o12u9g2BkZEjyg5vHZpr1gB6jA6BnDP%2Bmm839xdDhBkHLbNp1845wlxu5LlU8U%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/225298849319?hash=item3474db9e27:g:BDIAAOSwwX1jgyiF&amp;amdata=enc%3AAQAHAAAAkLpZ1CMYM53O67dqkFwy6JcALCRLYbE19kJiXoyFgeaRZVmUTJFZ5LxR600%2FR0CpFHF9d9OMbHKMEZHRRzjXwwNfm0l8BUZ5jsT4I5eqa2g9%2BeceGeutCnSibJFpvj3uabNy0ktKM0sxp8mUC%2Bj0HEasMH%2F6h%2FbNI4kXgmEqjSwrxQuS4Hy9R2%2BTs2M%2FvnEuRw%3D%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -984,18 +1044,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Áustria</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1005,21 +1065,26 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2d 19h restantes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MSI Geforce RTX3080 Suprim X 10GB DDR6X working fine + OVP</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 OC 10 Go GDDR6X Carte Graphique</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225298849319?hash=item3474db9e27:g:BDIAAOSwwX1jgyiF&amp;amdata=enc%3AAQAHAAAAkLpZ1CMYM53O67dqkFwy6JcALCRLYbE19kJiXoyFgeaRbSyuPTa4V2QGtvb%2FQl26NITLXSUUE%2F1YPInmEJy1TsZEHb7H9gefV7ziUXEc2qQwUAbDnQa0qCSkIGMR9POGHPahYZEoe9TfGWIw5BuceN4SSBm1yaR0er2l1CNGDjO9AQADI9fKVZEjVszpd0me%2Bw%3D%3D%7Ctkp%3ABk9SR6SayoOjYQ</t>
+          <t>https://www.ebay.com/itm/404051496392?epid=25041873530&amp;hash=item5e13588dc8:g:RDAAAOSwhTVjmLkW&amp;amdata=enc%3AAQAHAAAA4OX1tOYfley5IT%2FBTSA3Eo%2Fijnuu3H%2FpT6jrymTV%2F%2F%2Bzx%2BIeaKADIh6ZGhacTU%2FWPEQTBslXdy6grsiXRNPwEQgNQubrvarX4rKZ4aXNO9GEDSZYP%2BmT7Wv3KUBoXhbCxzCRs6dZp4YINhkltciDYnhil3hDYmS1tgMzexPXJ6NnO7xK29g24F0%2FX6pV0OOSfX8HqfivkPaJ9NVp0UGELDbU3%2FHEkNuznyqZAOFlEk0FdntLo6NARBw%2FTDn7eeyrv542COK8D4%2B4cpmjLxWJChemWZYkcC6VkAW91WDb3X3a%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1028,18 +1093,18 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>de Áustria</t>
+          <t>de França</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1049,21 +1114,26 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4d 3h restantes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 OC 10 Go GDDR6X Carte Graphique</t>
+          <t xml:space="preserve">Novo anúncioNVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X Grafikkarte </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404051496392?epid=25041873530&amp;hash=item5e13588dc8:g:RDAAAOSwhTVjmLkW&amp;amdata=enc%3AAQAHAAAA4OX1tOYfley5IT%2FBTSA3Eo%2BLPjiMSVanTiacU0DvtAKwveWSr2%2Btkb4nqIBFy5slT8odptVzaGb1pFAXkFxBFaliYpVlGmRWO6D669kFD91GodDrxEPPsTakDzNLK%2BmfnZvKt7kQjdwFQxMXKWZ9fXxTp1uCVy5hDoVmIBu26WsBYamgtE7gj9T3kv3QepzFkF%2FZaO7LWazmbbOCY6ArBhGZ3dMNKRVTTYjsTzICk1chkFfiMkvsPBJ7lZNVy%2FvWhAhEKVV8nY3NR2W02RFYAI%2B3K7TKo8xRK9696zn0bF7q%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/266043548353?epid=20047880078&amp;hash=item3df16e62c1:g:Ff0AAOSwXStjnGFC&amp;amdata=enc%3AAQAHAAAAoNFDQsbAeK8Vwr8s9aXaMQBTV4w1WqVvpoQwYRuQ6b9JiH18p13LqIndiZzjISeFA4f8TAE99nQNTNkUZ56%2FdbA0BTWDnn%2FKoeo1N1Z1UairjeiovsI5sN%2BlzKPbUoi8qjHLNPUNvJb%2FOIWCyBL5chUeQRTQki9uQF4w5KxCW01FQnnxagSk5qeGE2QSEHjUO4ee7RYCR1GbYbP7wVxlmoQ%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1072,18 +1142,18 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1093,21 +1163,26 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>6d 21h restantes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 OC V2 LHR 10GB GDDR6X Tarjeta Grafica</t>
+          <t>GIGABYTE GeForce RTX 3080 10Go GDDR6X Carte Graphique (GV-N3080GAMING OC-10GD)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255877482888?epid=22050522091&amp;hash=item3b937c8988:g:2XkAAOSwbs5jmPhf&amp;amdata=enc%3AAQAHAAAAoK%2FBIwmrlDKEd4wYzOLTC7oGxGMWARbzbGaZsYxGEMWZP0awbFhyh2fesu%2BY7JLk44M4WuF9SSNmAbp3N1U2q84%2Bmf3TLcNb2YpoZjtk6aBXf61XbJqhY%2BKIQ4OvX%2Be1fBtglJHehSU%2FKJeZKPWTCCcvPMkuxbd1s1IeOs5akiBesWcsznTRQhIP89lkZmMagqI0cEEqEHtFVWcc1qsH4Bg%3D%7Ctkp%3ABk9SR6SayoOjYQ</t>
+          <t>https://www.ebay.com/itm/404051515814?epid=23041457686&amp;hash=item5e1358d9a6:g:PwcAAOSw0B5jmLqw&amp;amdata=enc%3AAQAHAAAA4AlqlhVVVvtETtoP2U13Lc5atRtj06TJVKvIDVE%2BprhEeBraSjahdKJ0qp1S5FYBd4UJelTVVHzVg6GlKFo4SWRjKbhH%2BcW32Z5kwHoXhjLTUwjfvcwfkkdm%2FHQMwU85z3bpTq45iqMET0%2FFXWRmfEW9OCAPULTH8DvS2b1hYnXrnSv3Gmx%2BMWzEhyYgx9fIdWhYanNExGps0rxtMJJJ%2F%2Bc2DLjwnOCbDN46rHKFv5SgYjbp8NvlLvEujLF1dHSFV0nbHGjZ0okVQAuPZzFy9rXoZ5cMzVJg5JEzP1vmTr9b%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1116,18 +1191,18 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de França</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1137,21 +1212,26 @@
       <c r="J16" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2d 3h restantes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 3080 X3 LHR 10GB GDDR6X Grafikkarte (N30803-106X-1810VA44H)</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 OC V2 LHR 10GB GDDR6X Tarjeta Grafica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175528927975?epid=18053884757&amp;hash=item28de56e2e7:g:9x4AAOSwn0xjlfXX&amp;amdata=enc%3AAQAHAAAAoKZja%2B%2BjYkfTiPtLwQKCdB2NCRx3g3BmAoEYy3ltQtJaOeT4p00xKLOV4OuJJgCcli7jpcIZkA1GUDD5n9GMAl3qlamQxQa%2F695CRN%2FH4oLlFJXGJWyObN2bio8hu0%2FTj2ZMNpwSGcjfWIHDMd7RHK3g%2B5wcM9cKB9Slc55Acygg85ma7NrXLOKnxrIc0%2Bh%2FMhljIYeVqhw8tnk0v5CNMZw%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
+          <t>https://www.ebay.com/itm/255877482888?epid=22050522091&amp;hash=item3b937c8988:g:2XkAAOSwbs5jmPhf&amp;amdata=enc%3AAQAHAAAAoK%2FBIwmrlDKEd4wYzOLTC7oGxGMWARbzbGaZsYxGEMWZqa032zSfT1qlgrjqC4ZNKRVYDdBNkSqilMGhav2Qee58ywgGAkwK1Cj5KRDx5%2BBHMIvBoJyd%2B8La5MJfS4wSGaoR9f%2BabDPjAKNCQxtabNSjDsK4qds%2BTQD9plbcdggJdLpb994kr%2FbCsSum37MOK%2Fq%2FfBzHSHSZRRwu6QROuXQ%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1160,18 +1240,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1181,30 +1261,35 @@
       <c r="J17" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2d 7h restantes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>✅ NEUwertig: MSI GeForce RTX 3080 VENTUS 3X OC 10G inkl. Copper-Mod</t>
+          <t>Novo anúncioMSI GeForce RTX 3080 SUPRIM X 10GB GDDR6X Grafikkarte NON-LHR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175527696209?hash=item28de441751:g:BuoAAOSwq1ljlN1d&amp;amdata=enc%3AAQAHAAAAoOT0CqdafMBvxO8lsB%2BUouM1DUefobsKQgO2tX%2FhtoXMOfiRbh57edwBqRXY%2BjMDXeQL3cixQMRrVBTD8kTpDFiWmreXIB8iQjZrAE98WXLyOHqyHvqcHY%2FO6WOQhnhl58K%2BaUdhcsBfd0hwjkJ4EdbZyyW9%2B5e0TQ6LCRz2SIv2QiaCt8jugPGxYhp458kKm%2BXSrH5X1THz64WfR8xG8B0%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/185700815131?epid=4043529063&amp;hash=item2b3ca1911b:g:HXoAAOSwiepjcNo3&amp;amdata=enc%3AAQAHAAAAoEW5sjkzAJzW7HPbnvcF9B7AFaFi%2FyEqoPkGc5D3r7oDQDeCSO1sjNnW6%2Fl8bA4hnddQSZ7846UT0huRdQFSic9KhpA%2FSQufrIEW73TDwh3RMfEkfFlQjX9BwzIJWkJ76a5LteUP6i6NeZ%2FF479uDyPo304g3WD9J4ABlEA8WHISA2CI2NlurAApYElBS6U17AYijI98EVJorEMMjlSsa0I%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Recondicionado</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1212,10 +1297,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1225,21 +1310,26 @@
       <c r="J18" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>6d 22h restantes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Novo anúncioGIGABYTE RTX 3080 VISION OC</t>
+          <t>Inno3D GeForce RTX 3080 X3 LHR 10GB GDDR6X Grafikkarte (N30803-106X-1810VA44H)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/134366479450?epid=6041894992&amp;hash=item1f48ddc45a:g:dWQAAOSwYMZjmjWc&amp;amdata=enc%3AAQAHAAAAoBSvD2inlonuIcrF5uDOKvzyBiTuy9ZKDKzHW5TJ7N0EoADG896gA2AUSGrNZIGZS5VgnDgKi8NJvGl9W1WN5EIyYFTyRnu9M6IZwjFqNNwIKQM60ViTLbwYMi0BQCA5TbXqWo9TPmW0T2TLvBWG0vxNmOW7SedCHV0p%2BPD953qiXc6JdmwqlJwWEaC5V3XBtu14EIJIwie769rQkDqB1%2Bc%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
+          <t>https://www.ebay.com/itm/175528927975?epid=18053884757&amp;hash=item28de56e2e7:g:9x4AAOSwn0xjlfXX&amp;amdata=enc%3AAQAHAAAAoKZja%2B%2BjYkfTiPtLwQKCdB2NCRx3g3BmAoEYy3ltQtJapiTdkYsjKZRwrV%2FxrfbnzH021jdRSJTTUxQzoL2LBt53co9KlsWdxoIL46vlNU%2F06FUkVfX6s52QnV1QsVgx0RMVIHq9%2F7xFeUzW6a1Njn59saQ1RRA%2FvgpAOm1HSPBr7lnyLamwXHrZAEXO%2B30SXSUg%2FKeHBp4qxVaRB2QKGz0%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1248,18 +1338,18 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>de Bélgica</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1269,21 +1359,26 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2d 5h restantes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RTX 3080 EKWB Custom Wasserkühlung</t>
+          <t>✅ NEUwertig: MSI GeForce RTX 3080 VENTUS 3X OC 10G inkl. Copper-Mod</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204182194587?hash=item2f8a35099b:g:yN4AAOSwQWFjlAL8&amp;amdata=enc%3AAQAHAAAAoHOcC7AwILy5JLx3LWUEwfLY0vXe6k3KJuEZiBrXJZ2VmueEDGLgwNOx3SyhHffVHhUI03VjS5te90QB7%2FwXea30Y3bCSVH3V%2FzdFpbJtNlJELoNTuzA3OeIeniHlWvBLToZALam252zXZCq%2F5zpRrcN9enwXq6RQcbW04M3uCL3wdauL8xVYWphKh4v8a4r1Elv%2FUsV6TLbUK0CoVkwRC0%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/175527696209?hash=item28de441751:g:BuoAAOSwq1ljlN1d&amp;amdata=enc%3AAQAHAAAAoOT0CqdafMBvxO8lsB%2BUouM1DUefobsKQgO2tX%2FhtoXMn2DiFBbejIQr2vagjZVB9f5pUIVDgJl%2BS8qSjx7LZxw4%2FHnKH2bmKqYFv%2Bt54ogUwJWHPQhB3JCpk9UzPNduK1M6SU9RK2%2F2JApiJbSXUekyaJUo%2FmS0c7NfS5YMurPWVBRmbjxBvS77RKFZmiOzYn7uC%2BMQHxQdpQNLNV8iJE0%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1292,7 +1387,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1300,10 +1395,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1313,21 +1408,26 @@
       <c r="J20" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1d 5h restantes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EVGA GeForce® RTX 3080 FTW3 ULTRA GAMING 10G NON LHR</t>
+          <t>GIGABYTE RTX 3080 VISION OC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266031573205?hash=item3df0b7a8d5:g:NU8AAOSw1uljB2xo&amp;amdata=enc%3AAQAHAAAAoEueXhR%2F2OpYe6%2F3CKstYNk%2FtC%2BGNYhJ%2FfCadUI9%2BwEOMWhKptpFZ253vqCEOWUzeqXwQtRVnpjd5KNHPWwYuQaGk8DKqomXsiLB0hYjXF7je6C8HrBi8wv24mgZA7lkls%2F7ubNbio1Qny6%2BJkBQLEJ1XqzRNJQoHUrTdAV7wLjqOkBYj74ij6AXPVJClPPXCoiuEFnPqr4KYmxn2Qxk8zs%3D%7Ctkp%3ABk9SR6SayoOjYQ</t>
+          <t>https://www.ebay.com/itm/134366479450?epid=6041894992&amp;hash=item1f48ddc45a:g:dWQAAOSwYMZjmjWc&amp;amdata=enc%3AAQAHAAAAoBSvD2inlonuIcrF5uDOKvzyBiTuy9ZKDKzHW5TJ7N0ENjD9vB1%2B7Fa8ztnRlC2PwWjcC%2ByDkyyft4vqr%2FhwMR%2FiRuSGj31pzlQjdgB2JMbNAs73Qj17jDZFGrxgnEhVTfwnx0veD%2BT2K2lbnldmvoB3DxWZv6bKa3SFCY5ai0x%2BnLvPTjzC%2FM6tn9wmhkehd79TJfd2pac0bFQQjhJUlv4%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1336,18 +1436,18 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>612</v>
+        <v>575</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Bélgica</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
-        <v>630</v>
+        <v>591</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1357,21 +1457,26 @@
       <c r="J21" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>5d 6h restantes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 10Go GDDR6X Carte Graphique (GV-N3080GAMING OC-10GD)</t>
+          <t>Novo anúncioZOTAC GAMING GEFORCE RTX 3080 TI AMP! HOLO RTX 3080TI *wie NEU* 4 JAHRE GARANTIE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/195509924765?epid=23041457686&amp;hash=item2d854cb39d:g:~ikAAOSw0E9jkaTw&amp;amdata=enc%3AAQAHAAAAoFSnkoETAJcd8dMxGMZeDGczlgdR%2Ba0bp%2FzbguWKNLqk2WUAIYz7tBtaOqd%2F2Qd8bmomGzR6yjn%2FUNxP4ucOcULGHaRxIGT7%2F4n%2BnJJSG%2Fxb%2BwS266GcgL60tXNgfZ1DrEsh3JrwuQV1R0Lik%2BMrW6Tjb5h5WrKcXdwINp%2FlAwItK4Q73R6JLHmiXqUE8He6yYQWbwBkIelWkSuYhkBF8ls%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/295419024283?hash=item44c858939b:g:~eQAAOSwHNRjmoOK&amp;amdata=enc%3AAQAHAAAAoKEnvNqGxde0LqgfpC35Og6Opn4%2B%2BnMOtIqGp6H7HubFgikU0RV%2BAw%2FzA9Wy5BnYLJZ20wzTZiq33IbKwjeWiNH8BmXYESUWwdA03UxDL9MZsVAd07Q54s2Kp0uJyDqbdl0niksj6ETCFqE6AZ8oMkF9DWCvFUTkYWbz44TQkl8k1XiaqOWrg3oIwuomuYf0hOv3hS%2Fpgjdv79o2bq2M0K8%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1380,18 +1485,18 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>625</v>
+        <v>586</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1401,21 +1506,26 @@
       <c r="J22" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>6d 5h restantes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ASUS TUF-NVIDIA RTX3080-O10GB-GAMING (V1 NO LHR) sin caja.</t>
+          <t>EVGA GeForce® RTX 3080 FTW3 ULTRA GAMING 10G NON LHR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374405297154?hash=item572c4b7402:g:TucAAOSwzahjZDe6&amp;amdata=enc%3AAQAHAAAAoJnKO1osgvSsRjCDxX6sUZmFixNKvqTc3q4FPQF6C02YPXre5X5KEddpa%2BMiX8TutXry1qzX3E8QsZBME9G%2BA5vuszDpH3XUFRhfneFpEizwbkwlOMh2E79chcjHmpsjowY%2FJ7qxGea39fI2gkdsFRC1kdyxzjsQ9Ihjl4bt8xJt4DGc%2FnLcTmAdgWeoUYFnvTgRN9uZ8b1LVbvC6vC9SvQ%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/266031573205?hash=item3df0b7a8d5:g:NU8AAOSw1uljB2xo&amp;amdata=enc%3AAQAHAAAAoEueXhR%2F2OpYe6%2F3CKstYNk%2FtC%2BGNYhJ%2FfCadUI9%2BwEO8CXQ9hY35RpQ1yFAnRZHKZTjHZfXA9tmK7hyFP2dSy5iMf%2BLXtI9jgsHb3HMLxxHLIV301dBtDxKfjlh8E5grgKfgewYt761b4bjkKVb2jxCAR3v1vMOPZPxXqJgyKx5AWvSu5ToUu%2F0nvZXKookAdznkhqz1JnHLWRdaNcgPrQ%3D%7Ctkp%3ABk9SR5blt7WjYQ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1424,18 +1534,18 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de França</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1445,21 +1555,26 @@
       <c r="J23" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2d 4h restantes</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA 10GB GDDR6X Grafikkarte</t>
+          <t>RTX 3080 EKWB Custom Wasserkühlung</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225289640703?epid=25041873554&amp;hash=item34744f1aff:g:g0MAAOSwMf9jPxKT&amp;amdata=enc%3AAQAHAAAAoOtoi6ijug145Xm02tY0qnjo5qpVNyo2IUeAeQBT%2FEiG0ZlV24xKWw8Eqs6o8wViD5Qs67Ye%2B1p1mrurOJsrZ2aLAT0k1l5Zu7%2B2mdpZD6l3jwLoTy81bUYhEtFXzyJ5d8cMzVsoXQp1v%2F82uOEl2PUzk16hazslEb2U9rvL9trviq2tNOH7MzdsDr%2FmfYBPpYsb2QB5CLTNtQH7YQdM%2B%2Bo%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/204182194587?hash=item2f8a35099b:g:yN4AAOSwQWFjlAL8&amp;amdata=enc%3AAQAHAAAAoHOcC7AwILy5JLx3LWUEwfLY0vXe6k3KJuEZiBrXJZ2VFLYBduI1rBBrhALqweRzuqJs%2FFMMMRZVy0gHB4cOgF3BW%2BW%2FshrIbXEeqsXP6uu%2BY200LsH8jSIShF2oUyYHJE8axj66YQ26QBe4LmNwqOXUBT9dEOilMsw%2BpxjXcwW%2B8fNyPOqFkqmyL0cWT4Qu%2Fr75WzDrFVvSSSJ%2FZQXyKiY%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1468,18 +1583,18 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>639</v>
+        <v>600</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>de Eslováquia</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H24" t="n">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1489,21 +1604,26 @@
       <c r="J24" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2d 3h restantes</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA 10GB GDDR6X Grafikkarte</t>
+          <t>ASUS TUF-NVIDIA RTX3080-O10GB-GAMING (V1 NO LHR) sin caja.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225286712180?epid=25041873554&amp;hash=item3474226b74:g:g0MAAOSwMf9jPxKT&amp;amdata=enc%3AAQAHAAAAoK7mFb8SWOoBhLhSnLjVavqA1C7t4B8zLhdoE6ntbeiO5hQAy25rWf2BjLKcUPlYDDUEr2QDkGM0NY4RpSx3U9E76desBek7Gou0j%2FKc3pWe9WIde6TFcYXYEJnf72%2Bl%2Be1jdMzTsLtYfEHaTKyYBDtkliTVugJlY%2Bo5aVILS6aUnSHztrtYMW9m9h%2BMmnc7lu%2FxjdCEHeshCzNsDtozAiw%3D%7Ctkp%3ABk9SR6iayoOjYQ</t>
+          <t>https://www.ebay.com/itm/374405297154?hash=item572c4b7402:g:TucAAOSwzahjZDe6&amp;amdata=enc%3AAQAHAAAAoJnKO1osgvSsRjCDxX6sUZmFixNKvqTc3q4FPQF6C02Y4RNixkFGKMa8TGAip7eTY0heuFgyKuHmz2TgS1QOuL4EFRgpPPqcb7c3CXyhFEawAP%2Fqcemeha8YFNPldpdjxYFW%2FjddQJaEWJBbvdZRhKaPud%2FzClIC%2BJSPSogVMh3GR8BjzKVuwTF14LE2jy64fgej7vdj1I5XOWbw%2BjAo9Z8%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1512,18 +1632,18 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>de Eslováquia</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H25" t="n">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1533,6 +1653,11 @@
       <c r="J25" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>7d 2h restantes</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1672,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/155301073429?hash=item2428aa5215:g:aawAAOSw8Sljk43G&amp;amdata=enc%3AAQAHAAAAoHqRs9kO2EA7MPICqdvyCnrBSRGmeVICkGu5f6%2BPbiVljphaJpbkvEhJMgcWauSCAjhmEb%2Fm%2BJM0fFWTss1qyFAthTVQ7Xh1QOYnXPwxs7eiG79%2BGTpOaW6ftjCJdPtQ5pkp9DfHPn5sRPm4qVMlmtvxzqi7ybqMidQk0KcmlK1t4YCxUpqHs98hOObbOwwysmQh%2F1a5tMaDxoWc4%2Fvii%2Fw%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
+          <t>https://www.ebay.com/itm/155301073429?hash=item2428aa5215:g:aawAAOSw8Sljk43G&amp;amdata=enc%3AAQAHAAAAoHqRs9kO2EA7MPICqdvyCnrBSRGmeVICkGu5f6%2BPbiVlw5ElvXXUPyXVdOPjpy5aNM7OgxyPiUMmqz7MDcY0kjjpkCnkyprA92VNhHmUBP2RfojIJjGxqujxc1iRE1Kvp2lOPTTKeljxz2FSuGFq21ujsRy7MhSYcO4iMSUxQdgYcLeVvtLqdG7kk9VaEX9TvJu5tbkB1ru2CfkACB2XCRE%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1579,48 +1704,9 @@
           <t>No other purchase options</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Novo anúncioMSI GeForce RTX 3080 Ti VENTUS 3X OC 12GB GDDR6X Tarjeta Grafica</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/295418880621?epid=14047876923&amp;hash=item44c856626d:g:vpkAAOSwSC5jmw99&amp;amdata=enc%3AAQAHAAAAoJy586DAlOmfcPCL%2BbIac5xONiBkBxbyuA9oDopF4GYaJLJPaKVVpwwYK7kIy021yjqEdVNOYwqjQII58Xen1pvPsKtrf9HhwacfVlXPravTMeQm2HQUQe4%2B9RFKaSJTzbqDdvLB8TxSA5d1lLc2i1qwvr61gqLoCihq1x5EIrj%2B9n2SGoKLsD2psA%2BI9lmtrDMjkFdlb20EW8p3m7y1E3c%3D%7Ctkp%3ABk9SR6aayoOjYQ</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Seminovo</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>600</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>de Espanha</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>100</v>
-      </c>
-      <c r="H27" t="n">
-        <v>700</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>No other purchase options</t>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1d 6h restantes</t>
         </is>
       </c>
     </row>

--- a/results/rtx 3080.xlsx
+++ b/results/rtx 3080.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,36 +487,36 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2 Stück AMD FirePro S10000 | 4xmDP+DVI | 6 GB GDDR5 | 3584 Kerne | Abverkauf</t>
+          <t>TUF Gaming GeForce RTX 3080 Ti OC Edition (Heat sink and Blower) NO VIDEO CARD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/265048648447?hash=item3db6216aff:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoAkedz3J3RKbUB9y5GquAUg23%2Fhqppem%2FJ0EbUnfn7b42Ub89ddQ9vbh1H1sWwIf6Wu3eT%2FmNM%2BwRLqrMCHm2%2BCZNyTBK7KxBiCLMoPZIs71We5JoDtFEexirKutT7h6bnPxaF%2B6S2GByCNyF3jLTwQDb4JKAUMPt5qGI0OCKSjBghliTOCEGckYGQlsjXcKUaDaHW%2BBGMgQvF27fZAnHik%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/275548475658?hash=item4027f8110a:g:goYAAOSwfupjUZJ2&amp;amdata=enc%3AAQAHAAAAoPkD7KzYPJcMTcPC1u4znHxGHlm3bvv%2BvHlgb69VEtcPs57FW9c8HMlO%2F7xXpT82G5%2BkoLY%2B0TEZpf8ZdEDEMH4sFCBtzIjOdFZhXdlTshbjzOwRKRBPk%2B%2FHIB6eu0vCSeohZk4tV%2B9CywsoFSSYlAhJl%2F7t7flILCx99HjMM%2BSbGKmSYD8AWOC6E%2FiBz%2BavUeJQJSVuDD%2BI1nuJ1%2FsIKlQ%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Somente peças</t>
+          <t>Novo (outro)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Polônia</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Comprar já!</t>
+          <t>ou Oferta direta</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -536,36 +536,36 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2 Stück AMD FirePro S10000 4xmDP+DVI 6 GB GDDR5 3584 Kerne Abverkauf</t>
+          <t>ASUS RTX 2080 TI 11GB GDDR6 TURBO NO RTX 3070 RTX 3080</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255870438830?hash=item3b93110dae:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoDpn99LpZ%2FpMGIqRcWnoeUe7Q25xpZEvEHzeiVKm%2F58MsYJ3UgsdXoo03EKG%2BnumuJKT19Xx0iV7o91INNQSuGOhpMD%2Fcne1tbjc4bBNPwwQnfX5WPINNpIxitdVAOb7ljmBWeG7k3AkYgSul7Af0t03C06PaTZY1c6tKESAu0IQasp%2F4I5XI1%2BJr5gDXZlp4xhAzHnRKVj%2Fl0OhGugeGvQ%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/125654019352?epid=15031199219&amp;hash=item1d41902d18:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoPp4NkA%2BJNjmWcOGjDajT0zTkaWaI%2BCosjgB9nlPlpDWHjAz02lcIbQyW2WT%2FxsnsI97r7PEvUI5pSgzgPFuVds2twjs0tDi6LG8AC0xvWyedygxqnH6AUCDS6sf6lBRctVXAGARRXXn0dMjDW8XiNRYBgSJ607ppzpmbXuYBERlB1uWMkC9bH9jpF%2B%2Bry4MwNheqZyQpanZK%2FhQRBq4GLY%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Somente peças</t>
+          <t>Seminovo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>186</v>
+        <v>509</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Itália</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>211</v>
+        <v>519</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -585,36 +585,36 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2 Pièce amd firepro S10000 4xmDP + DVI 6 GB GDDR5 3584 Noyaux Solde</t>
+          <t>Gigabyte GeForce RTX 3080 GAMING OC WATERFORCE WB 10G (Rev 1)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255870478858?hash=item3b9311aa0a:g:pb4AAOSwU9RjMbIe&amp;amdata=enc%3AAQAHAAAAoBr93JYMF6T7QucwMLp4GgpSvWflswoUb%2BAGvILgzZCQQ9nCjOuhvYRdGFudmkqwtNx1XwjB4olFGAdcWhNH9sTM38a8By83LMITq79%2FD6NPzVWRF5QmoZ28mekfgL3LRQ4FDxuICnnjOAtycajY0JJwKwuyIKYObFyr35LKt7TvadWr4t0ELQ8jFjZO0%2B68PYQ6iz9TQM88sLlM%2FEN1pJw%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/404037111469?hash=item5e127d0ead:g:uWUAAOSwpX9jjyRX&amp;amdata=enc%3AAQAHAAAAoPlCdtTId7uJBCKyOM%2FrPnBN4ZnmBbxapA6T7UeEh%2Fpdju02DbaieUzPf7tfJCmPhm0TpXfZAARl7MX9hBihM9am0RTsifuT6mCEN%2Fm%2FPAONAlOYyqHmcFoDLkn%2B8ISvdhStsMxryBNTE408w%2FHg1PhuFl%2BQzRMmLU%2B89rsYpVsEiprPApAoD4PqmqsNxAa0NdPWyA%2BK3FE95REo4QNFbSs%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Somente peças</t>
+          <t>Seminovo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>194</v>
+        <v>595</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de França</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>219</v>
+        <v>629</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -634,65 +634,65 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TUF Gaming GeForce RTX 3080 Ti OC Edition (Heat sink and Blower) NO VIDEO CARD</t>
+          <t xml:space="preserve">NO LHR ZOTAC GAMING GeForce RTX 3080 AMP Holo 10GB GDDR6X Grafikkarte </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/275548475658?hash=item4027f8110a:g:goYAAOSwfupjUZJ2&amp;amdata=enc%3AAQAHAAAAoPkD7KzYPJcMTcPC1u4znHxGHlm3bvv%2BvHlgb69VEtcPWa7CVlqXN%2B6xf11K31OaKLV7ZzWpKTRaKc%2BuaKezrDXlGoQlfQplj9PZ9Vfrcv43l8xgTiDaUy6xuZBvQGORRgW5dtkXQatc2FS8Dl1B7hNs5mRtjGgr%2FH2yp2rm4vLSdOSX35YObfHkJ2lwVjcW1okiJ%2F5kmOgkuJxDeyLY7XI%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/144855657794?epid=5041892846&amp;hash=item21ba11ed42:g:itMAAOSwV8pjmj7g&amp;amdata=enc%3AAQAHAAAA4KAKAyirU06xOV04ic4GIOrJwrsuY6SyT93al13lMxZCI40bGUly%2B6QiWTSnAUS2QsmzIwERUxwz7jeZGCFrLZBYLB%2BPW%2Fu06OKQEqMjk29A3t5XFuOyROEaE3zuUnL%2BaAOlLDzzSjCN%2F7x6w9O0KkFFIlLD0BCR7UOaepPNaxH8geE09u2b%2FhSWVDzgjibjMeec9m6zHZkCR0E2yiOwttUIPzbmpfobV2oqUj0DRvBum%2F2MefahMKp2hARPhW9QjmGRKyg93PLujbKCOnhebCYbR5ewjXgxQdtEv6307sj%2F%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Novo (outro)</t>
+          <t>Seminovo</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>209</v>
+        <v>401</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>de Polônia</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>249</v>
+        <v>416</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ou Oferta direta</t>
+          <t>No other purchase options</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>5d 2h restantes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASUS RTX 2080 TI 11GB GDDR6 TURBO NO RTX 3070 RTX 3080</t>
+          <t>Zotac Geforce RTX 3080 Amp Holoback (incl. OVP, working fine!!)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125654019352?epid=15031199219&amp;hash=item1d41902d18:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoPp4NkA%2BJNjmWcOGjDajT0zTkaWaI%2BCosjgB9nlPlpDWwol69vCaanXAibAosPBzSrl3KSiYsaiAqCHA0CB1CUK0xIGiOK7I%2BvarfNG%2FS8QazvLMWbX4rT6cKwhV4MszvCe67jIcW9Q5bWUfW%2FmX0czCB6twH1ghYZDvLWkKonbTtuHRkUmJ%2BrG5pIYWtsbuVF0R7gz2UoboV%2FravTsE3SE%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/285075658877?hash=item425fd5587d:g:ppUAAOSwC5Fjgycl&amp;amdata=enc%3AAQAHAAAAoMDoBdpEx7qldxrx0QQbT2FiH7tetgNBcvD%2BLkgH04GP0YRbsUfq4YpEFO1dZvpqIjVwmioJLn8LJDy0n%2F1MNn5oJc%2BAapJzXNBRrWsxxhZh04z1Bx3B057fLndzMYpzVZ%2BHJy%2B2GgCUWple5nftOC6hN1gIdLP4uHZj2raZgRF7h2iKurH9htvl2%2BNnD%2BEO%2B7x50X%2BlIbJ3lnxRhrrSzf0%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -701,47 +701,47 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>509</v>
+        <v>401</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>de Itália</t>
+          <t>de Áustria</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>519</v>
+        <v>419</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Comprar já!</t>
+          <t>No other purchase options</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>4d 15h restantes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3080 GAMING OC WATERFORCE WB 10G (Rev 1)</t>
+          <t>GeForce RTX 3080 X3 LHR Grafikkarte - 10GB GDDR6X, HDMI, 3x DP with warranty</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404037111469?hash=item5e127d0ead:g:uWUAAOSwpX9jjyRX&amp;amdata=enc%3AAQAHAAAAoPlCdtTId7uJBCKyOM%2FrPnBN4ZnmBbxapA6T7UeEh%2FpdWPji7FW4roQrC%2B6R5QYnqQ4%2F8ETEPdmDI1I6K%2BlDAcT2T2%2BNiUMwk7LKEB1J2gmNtCQcLf32zm94X%2FYOAUHuboNmDOw49x3usucWcNrIqLcA2LbLAysPi5GGB6RgS0AUgJ2n%2FcEEJjt%2FvWBGyh0eh3SKDBkgTuWztxkK7WZcpcM%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/374405382109?epid=18053884757&amp;hash=item572c4cbfdd:g:fc4AAOSwVWtjmL5j&amp;amdata=enc%3AAQAHAAAAoGN22skkc%2BOJYCrMQdvd8p9RDZ162IxS11ap9UISUBMYFljGl6akn2higEPs8nybzEyd%2Bnuo2asrD5Mnt7X6o2pY%2BI8EyaS8IcMaOb5AsBsP6xaY%2BMbSDphVQzUs86IaJbP46di2WSFA5vUYRxFVDwqHl%2F8XaeEc%2FAwwGwIgJ4T%2FFM4%2BTNAgqEqZw73UC%2FP3DexOQnmWCZynH0WdMmtbOQ8%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -750,67 +750,67 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>595</v>
+        <v>404</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>629</v>
+        <v>420</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Comprar já!</t>
+          <t>No other purchase options</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>1d 22h restantes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GeForce RTX 3080 X3 LHR Grafikkarte - 10GB GDDR6X, HDMI, 3x DP with warranty</t>
+          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374405382109?epid=18053884757&amp;hash=item572c4cbfdd:g:fc4AAOSwVWtjmL5j&amp;amdata=enc%3AAQAHAAAAoGN22skkc%2BOJYCrMQdvd8p9RDZ162IxS11ap9UISUBMYTNnImE1ENzAF2B0gkehv8mI28xsb0IKp7QuzNDVY9VD6z2Ra3UzzYqwJj%2BBYbiQMDzWuRjcmyx2gDH10BoHG4i%2Bd%2Fl1rey5m8qj9SvOdkLh4Mzp9eHcNuFe0R0UBmnCubsRZS78%2Fkw2RYzNzKDxCVLR0Wc7PFbgg7Xhom8nEQJM%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJG%2BI0%2FMqnchWhtliiipiaB5tdgSxOaoCclPpppllPScBzUO34gQubfuM703vhU%2Flcq%2Fq8zCe2vddW3pTFhlJhAhCTdhSZIFF%2Bo8bdHBriSPKeZAM50EuWe56T8Cbkerzhp5KMK%2BdXFsXy4azbNfNXosj%2BgyzgsDEu4pUi8qSlOyQ%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Novo (outro)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>264</v>
+        <v>401</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Bulgária</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>280</v>
+        <v>433</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -824,22 +824,22 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2d 3h restantes</t>
+          <t>4d 16h restantes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">NO LHR ZOTAC GAMING GeForce RTX 3080 AMP Holo 10GB GDDR6X Grafikkarte </t>
+          <t>MSI Geforce RTX3080 Suprim X 10GB DDR6X working fine + OVP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/144855657794?epid=5041892846&amp;hash=item21ba11ed42:g:itMAAOSwV8pjmj7g&amp;amdata=enc%3AAQAHAAAA4KAKAyirU06xOV04ic4GIOrJwrsuY6SyT93al13lMxZCI40bGUly%2B6QiWTSnAUS2QsmzIwERUxwz7jeZGCFrLZBYLB%2BPW%2Fu06OKQEqMjk29A3t5XFuOyROEaE3zuUnL%2BaPlgEjLB3I4pc%2FCrGEQM1pLKXLSFEUzjwxy3aLEyfcd7n9xtAQlsQ1%2BlUl%2FuxWm67ijkzTDge1Cb8Z2fJuAQ9rQUwz6elhzvUf7iFqRnYjRUUp959YgODwcRo4qNip4bOxZRW7Km0W7AC%2BEgeiQtp5rwZLRpnZA5F8%2BNEzuugder%7Ctkp%3ABk9SR5rlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/225298849319?hash=item3474db9e27:g:BDIAAOSwwX1jgyiF&amp;amdata=enc%3AAQAHAAAAkLpZ1CMYM53O67dqkFwy6JcALCRLYbE19kJiXoyFgeaRqImUms0JW2Brflu3n%2BYxhGfkkV84txuGSsoJzIIrmIOsu37wIKvwSRRr%2F1VjX2Xdo4b9w2lkuRiBmioGjTo5kUMRLxlDgd41HFePyUOt6ZGbVGUBrGL%2F89S%2BYaF9WdmH1tpQ003EqLVKkvJ5IncNag%3D%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,18 +848,18 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Áustria</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H9" t="n">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -873,22 +873,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>5d 6h restantes</t>
+          <t>2d 15h restantes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Novo anúncioASUS TUF Gaming Nvidia GeForce RTX 3080 OC 10GB GDDR6X Grafikkarte *TOP*</t>
+          <t>ASUS TUF Gaming Nvidia GeForce RTX 3080 OC 10GB GDDR6X Grafikkarte *TOP*</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/354454701370?epid=3041889918&amp;hash=item528725853a:g:KzwAAOSwDDtjm1WU&amp;amdata=enc%3AAQAHAAAAoNGmhD3W5BEq5Rat4uV5omV211Xq%2FWVvIj2eISKg3EOFb%2BZl6u%2FptSqfDx68qGgZabDj5NPni%2FyxEdIYCJ%2FMPE7PznGqC57owGYxq77kUk023pZy0mys9njllNvse%2B4OJFFFUdohYFwwfTXqvFigyPuaYKWWAUtC9PJkshBDvaCjvkiE6A677rLKCyRkHdzPSbAH09qBErtWj6ln7k%2BDtis%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/354454701370?epid=3041889918&amp;hash=item528725853a:g:KzwAAOSwDDtjm1WU&amp;amdata=enc%3AAQAHAAAAoNGmhD3W5BEq5Rat4uV5omV211Xq%2FWVvIj2eISKg3EOFY3EIBBSedf0Th4J94FHIa%2FtRZcTAhKwdOF4kLjC7Cq4wVSks%2Bjj8XR4PbYEdf2QO60JUA3wged8luBP5AEf9ydN2dZF5bi51CpnaNLvK0G1Fwy71XocUXMwxGGgT2QhiQdq3cdpBzxiV1pYgWY%2FJYKPnHE79tG1wcUTs4wgrNCA%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -922,22 +922,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>9d 2h restantes</t>
+          <t>8d 22h restantes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Zotac Geforce RTX 3080 Amp Holoback (incl. OVP, working fine!!)</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 OC 10 Go GDDR6X Carte Graphique</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/285075658877?hash=item425fd5587d:g:ppUAAOSwC5Fjgycl&amp;amdata=enc%3AAQAHAAAAoMDoBdpEx7qldxrx0QQbT2FiH7tetgNBcvD%2BLkgH04GPmPA9z0e6D0EFyo%2BYakVczeHfY1BPvM%2B0XQy2g2BiHELSn1%2B4CkpJm80y0Pnt%2BlOlpyxVSTNrz5Zc2AFNvz8lGI9nZIydtrQKXjF1t%2Bkv4hL%2BVe8cZW%2FeXqy6WRKgJLPdT93GtLky1kbgdPmJHU0Z8YRGUOag%2FZbqFtlv6yV85Lw%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/404051496392?epid=25041873530&amp;hash=item5e13588dc8:g:RDAAAOSwhTVjmLkW&amp;amdata=enc%3AAQAHAAAA4OX1tOYfley5IT%2FBTSA3Eo%2Fijnuu3H%2FpT6jrymTV%2F%2F%2Bzx%2BIeaKADIh6ZGhacTU%2FWPEQTBslXdy6grsiXRNPwEQgNQubrvarX4rKZ4aXNO9GEDSZYP%2BmT7Wv3KUBoXhbCx9zC5R6mT2QpCE2dzBhrvUBuhmPRbw3WYkNYZF7z16CJ9N43kiMVxTXvcwbIJPvK88UzXzFaUKV79YZTMQEWC1o%2FolOpX3hYwYgchkZuoSAejbRw%2FHoFXQt4FkxazwVoHNE98UuhlITkp4rME3GgLKJ5vTU7m1Y5bTVlMzs3bFh6%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -946,18 +946,18 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>de Áustria</t>
+          <t>de França</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -971,42 +971,42 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4d 19h restantes</t>
+          <t>3d 22h restantes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Grafikkarte GPU INNO3D 3080 12Gb</t>
+          <t xml:space="preserve">Novo anúncioNVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X Grafikkarte </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJ9hqFXT%2F5EQoN91HPYx59UX0%2Fyi404BmdlMgk4RIb77ZgapA%2BkJObOzM%2Fe16ksuSoTtRtW30bzgeyZkdDvgqk%2BWDPFc8GaF4oC2lBG9JBMZOVO9Et01xc1rt0bPRSLpHBJnDcEolDm0gXh7TRC4WGjIsDk1mqVq9KXVFiFs0YL14%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/266043548353?epid=20047880078&amp;hash=item3df16e62c1:g:Ff0AAOSwXStjnGFC&amp;amdata=enc%3AAQAHAAAAoNFDQsbAeK8Vwr8s9aXaMQBTV4w1WqVvpoQwYRuQ6b9JoDW4q0kBcOOxM86KOIKLDw7mypSNp4kEXGwpb5nDXPUCF971Vh7ouYwM99BMpYFOnbkml0w7vWTIkjLGiYJSOgUjR01pCcjrIQV%2Fih6s%2Fgpo0pTyUye4zJG7EykCHRL1YTlGhpn%2BjOnjI9mBiej%2BhdSx%2BiIrMgi9MmGh8jPmTPE%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Novo (outro)</t>
+          <t>Seminovo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>de Bulgária</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1020,22 +1020,22 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4d 21h restantes</t>
+          <t>6d 17h restantes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MSI Geforce RTX3080 Suprim X 10GB DDR6X working fine + OVP</t>
+          <t>GIGABYTE GeForce RTX 3080 10Go GDDR6X Carte Graphique (GV-N3080GAMING OC-10GD)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225298849319?hash=item3474db9e27:g:BDIAAOSwwX1jgyiF&amp;amdata=enc%3AAQAHAAAAkLpZ1CMYM53O67dqkFwy6JcALCRLYbE19kJiXoyFgeaRZVmUTJFZ5LxR600%2FR0CpFHF9d9OMbHKMEZHRRzjXwwNfm0l8BUZ5jsT4I5eqa2g9%2BeceGeutCnSibJFpvj3uabNy0ktKM0sxp8mUC%2Bj0HEasMH%2F6h%2FbNI4kXgmEqjSwrxQuS4Hy9R2%2BTs2M%2FvnEuRw%3D%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/404051515814?epid=23041457686&amp;hash=item5e1358d9a6:g:PwcAAOSw0B5jmLqw&amp;amdata=enc%3AAQAHAAAA4AlqlhVVVvtETtoP2U13Lc5atRtj06TJVKvIDVE%2BprhEeBraSjahdKJ0qp1S5FYBd4UJelTVVHzVg6GlKFo4SWRjKbhH%2BcW32Z5kwHoXhjLTUwjfvcwfkkdm%2FHQMwU85z45X45lSePCwZr%2B9%2BUl0SNnNtzHqgJe235ZPHGjR3Zm6In8ZZcwl81cqZ59jlybHM1PSsgxHqxzbf%2FYUQzqlabVFjYq9maXAKhz5vB9CY5qTZTi4PByblUUm1PtPMiFSfIuTgGtK4hjbk%2B6WHwIjj%2Fmr5CQsJK56tZ6NtzCRJWej%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1044,18 +1044,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>de Áustria</t>
+          <t>de França</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H13" t="n">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2d 19h restantes</t>
+          <t>1d 22h restantes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 OC 10 Go GDDR6X Carte Graphique</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 OC V2 LHR 10GB GDDR6X Tarjeta Grafica</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404051496392?epid=25041873530&amp;hash=item5e13588dc8:g:RDAAAOSwhTVjmLkW&amp;amdata=enc%3AAQAHAAAA4OX1tOYfley5IT%2FBTSA3Eo%2Fijnuu3H%2FpT6jrymTV%2F%2F%2Bzx%2BIeaKADIh6ZGhacTU%2FWPEQTBslXdy6grsiXRNPwEQgNQubrvarX4rKZ4aXNO9GEDSZYP%2BmT7Wv3KUBoXhbCxzCRs6dZp4YINhkltciDYnhil3hDYmS1tgMzexPXJ6NnO7xK29g24F0%2FX6pV0OOSfX8HqfivkPaJ9NVp0UGELDbU3%2FHEkNuznyqZAOFlEk0FdntLo6NARBw%2FTDn7eeyrv542COK8D4%2B4cpmjLxWJChemWZYkcC6VkAW91WDb3X3a%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/255877482888?epid=22050522091&amp;hash=item3b937c8988:g:2XkAAOSwbs5jmPhf&amp;amdata=enc%3AAQAHAAAAoK%2FBIwmrlDKEd4wYzOLTC7oGxGMWARbzbGaZsYxGEMWZQ1aCJ4Ii4obSXyfc8qqwTmJTcRqXdSPRbOXdtL9UmPh3fLVhEIDVLaTUR%2BJ7feEZsDOxG1coTA%2FCi9sPYCeSKT8i7W2h3Wx4wni0GnpBGwVhyg1yz0L4OIvEvpp8T3J3rzWvrNKecKaFlGCNJ7M2caUSm61ItA7ii2VZI%2F4jDr8%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1093,18 +1093,18 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1118,31 +1118,31 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4d 3h restantes</t>
+          <t>2d 3h restantes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Novo anúncioNVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X Grafikkarte </t>
+          <t>Novo anúncioMSI GeForce RTX 3080 SUPRIM X 10GB GDDR6X Grafikkarte NON-LHR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266043548353?epid=20047880078&amp;hash=item3df16e62c1:g:Ff0AAOSwXStjnGFC&amp;amdata=enc%3AAQAHAAAAoNFDQsbAeK8Vwr8s9aXaMQBTV4w1WqVvpoQwYRuQ6b9JiH18p13LqIndiZzjISeFA4f8TAE99nQNTNkUZ56%2FdbA0BTWDnn%2FKoeo1N1Z1UairjeiovsI5sN%2BlzKPbUoi8qjHLNPUNvJb%2FOIWCyBL5chUeQRTQki9uQF4w5KxCW01FQnnxagSk5qeGE2QSEHjUO4ee7RYCR1GbYbP7wVxlmoQ%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/185700815131?epid=4043529063&amp;hash=item2b3ca1911b:g:HXoAAOSwiepjcNo3&amp;amdata=enc%3AAQAHAAAAoEW5sjkzAJzW7HPbnvcF9B7AFaFi%2FyEqoPkGc5D3r7oDZ8v%2F5OXL0jTj18Q9e%2Fl1IZb5ZD2Fo4IDoynwYUoB5dF8OWRAFE2XpFMeKzyaxZhigsjqQyOJrqrDmgZzdhjsENbVNE5QL3XXSZmdstUfIeJb3u2D7BkOOv0rgzAQwkdF5bqoNsUNUBa1KViTMu9KKluQrR4VWzXe58tLXMrJMKc%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Recondicionado</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1167,22 +1167,22 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>6d 21h restantes</t>
+          <t>6d 17h restantes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 10Go GDDR6X Carte Graphique (GV-N3080GAMING OC-10GD)</t>
+          <t>Inno3D GeForce RTX 3080 X3 LHR 10GB GDDR6X Grafikkarte (N30803-106X-1810VA44H)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404051515814?epid=23041457686&amp;hash=item5e1358d9a6:g:PwcAAOSw0B5jmLqw&amp;amdata=enc%3AAQAHAAAA4AlqlhVVVvtETtoP2U13Lc5atRtj06TJVKvIDVE%2BprhEeBraSjahdKJ0qp1S5FYBd4UJelTVVHzVg6GlKFo4SWRjKbhH%2BcW32Z5kwHoXhjLTUwjfvcwfkkdm%2FHQMwU85z3bpTq45iqMET0%2FFXWRmfEW9OCAPULTH8DvS2b1hYnXrnSv3Gmx%2BMWzEhyYgx9fIdWhYanNExGps0rxtMJJJ%2F%2Bc2DLjwnOCbDN46rHKFv5SgYjbp8NvlLvEujLF1dHSFV0nbHGjZ0okVQAuPZzFy9rXoZ5cMzVJg5JEzP1vmTr9b%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/175528927975?epid=18053884757&amp;hash=item28de56e2e7:g:9x4AAOSwn0xjlfXX&amp;amdata=enc%3AAQAHAAAAoKZja%2B%2BjYkfTiPtLwQKCdB2NCRx3g3BmAoEYy3ltQtJao3MhCVR0cFHpC6zBEza7aupeWIJ9XPtNN%2BV7RwFSKqleu4gcp1kD7%2F9T38O99lYkpmpbYza5NPpBXf2es8gHoPtpyGEupM2fkuXwGtKCuOBLStWR9Cp25vpENh749AdHeLukRuwO%2FLoT%2B8yPUC08CDQ6k477VBjWc0u7%2BJPFzDU%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1191,18 +1191,18 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1216,22 +1216,22 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2d 3h restantes</t>
+          <t>2d 1h restantes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 OC V2 LHR 10GB GDDR6X Tarjeta Grafica</t>
+          <t>✅ NEUwertig: MSI GeForce RTX 3080 VENTUS 3X OC 10G inkl. Copper-Mod</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255877482888?epid=22050522091&amp;hash=item3b937c8988:g:2XkAAOSwbs5jmPhf&amp;amdata=enc%3AAQAHAAAAoK%2FBIwmrlDKEd4wYzOLTC7oGxGMWARbzbGaZsYxGEMWZqa032zSfT1qlgrjqC4ZNKRVYDdBNkSqilMGhav2Qee58ywgGAkwK1Cj5KRDx5%2BBHMIvBoJyd%2B8La5MJfS4wSGaoR9f%2BabDPjAKNCQxtabNSjDsK4qds%2BTQD9plbcdggJdLpb994kr%2FbCsSum37MOK%2Fq%2FfBzHSHSZRRwu6QROuXQ%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/175527696209?hash=item28de441751:g:BuoAAOSwq1ljlN1d&amp;amdata=enc%3AAQAHAAAAoOT0CqdafMBvxO8lsB%2BUouM1DUefobsKQgO2tX%2FhtoXMw58L%2BnRdWezm79AKvhmUHKzU3kPKaj5hOs7rMNinRn0YPWiVwY1AqUjG4hmnMuZvpSg6z%2Bs97NvfKfvq7W3ugTihzTxalaNfrn%2FYtfmU0F6ZZ2%2F8DhBO0%2B8fE0x7DpD4%2B2PJFVZVDHEnt%2Bt69%2BAkbb84hSLxSUPXOR4EKcCDb30%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1240,18 +1240,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1265,42 +1265,42 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2d 7h restantes</t>
+          <t>1d restantes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GIGABYTE RTX 3080 VISION OC</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/134366479450?epid=6041894992&amp;hash=item1f48ddc45a:g:dWQAAOSwYMZjmjWc&amp;amdata=enc%3AAQAHAAAAoBSvD2inlonuIcrF5uDOKvzyBiTuy9ZKDKzHW5TJ7N0EeI0z9OJr5abCLkRVVuTfjZM%2B5b6HT0VkG6zsQKGNqReobiI1%2FTQt32pJXjHfr5BZ%2B8LunCxuLajUOeW3L%2BSnfrN3SUOfT3winj8SOwmHapNmULC2O6bWyqWwzRMc3ReRdpZZrWv7WZQ1C12TsuISUXES%2BSXAx63BgXxvD4cWZSw%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>575</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>de Bélgica</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Novo anúncioMSI GeForce RTX 3080 SUPRIM X 10GB GDDR6X Grafikkarte NON-LHR</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/185700815131?epid=4043529063&amp;hash=item2b3ca1911b:g:HXoAAOSwiepjcNo3&amp;amdata=enc%3AAQAHAAAAoEW5sjkzAJzW7HPbnvcF9B7AFaFi%2FyEqoPkGc5D3r7oDQDeCSO1sjNnW6%2Fl8bA4hnddQSZ7846UT0huRdQFSic9KhpA%2FSQufrIEW73TDwh3RMfEkfFlQjX9BwzIJWkJ76a5LteUP6i6NeZ%2FF479uDyPo304g3WD9J4ABlEA8WHISA2CI2NlurAApYElBS6U17AYijI98EVJorEMMjlSsa0I%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Recondicionado</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>495</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>de Alemanha</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>50</v>
-      </c>
       <c r="H18" t="n">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1314,22 +1314,22 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6d 22h restantes</t>
+          <t>5d 1h restantes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 3080 X3 LHR 10GB GDDR6X Grafikkarte (N30803-106X-1810VA44H)</t>
+          <t>EVGA GeForce® RTX 3080 FTW3 ULTRA GAMING 10G NON LHR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175528927975?epid=18053884757&amp;hash=item28de56e2e7:g:9x4AAOSwn0xjlfXX&amp;amdata=enc%3AAQAHAAAAoKZja%2B%2BjYkfTiPtLwQKCdB2NCRx3g3BmAoEYy3ltQtJapiTdkYsjKZRwrV%2FxrfbnzH021jdRSJTTUxQzoL2LBt53co9KlsWdxoIL46vlNU%2F06FUkVfX6s52QnV1QsVgx0RMVIHq9%2F7xFeUzW6a1Njn59saQ1RRA%2FvgpAOm1HSPBr7lnyLamwXHrZAEXO%2B30SXSUg%2FKeHBp4qxVaRB2QKGz0%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/266031573205?hash=item3df0b7a8d5:g:NU8AAOSw1uljB2xo&amp;amdata=enc%3AAQAHAAAAoEueXhR%2F2OpYe6%2F3CKstYNk%2FtC%2BGNYhJ%2FfCadUI9%2BwEOx6Lt2SWgFGrELCmQqdwZbSpAQcdEzcjSC4PWsFH0cocCkw99BZClx%2F1GiDD%2F7RAgF4e7KQ9UMbd59sxww5rSbziduiXEdkfdH4%2F9%2B5x9EWN1mX8HaWocubbTwq6TTUvW3yp%2FqSdPPTCKRxeTbV%2B1wkeix%2BzBU18qJm2xqz2%2F0VQ%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1338,18 +1338,18 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de França</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1363,22 +1363,22 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2d 5h restantes</t>
+          <t>1d 23h restantes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>✅ NEUwertig: MSI GeForce RTX 3080 VENTUS 3X OC 10G inkl. Copper-Mod</t>
+          <t>RTX 3080 EKWB Custom Wasserkühlung</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175527696209?hash=item28de441751:g:BuoAAOSwq1ljlN1d&amp;amdata=enc%3AAQAHAAAAoOT0CqdafMBvxO8lsB%2BUouM1DUefobsKQgO2tX%2FhtoXMn2DiFBbejIQr2vagjZVB9f5pUIVDgJl%2BS8qSjx7LZxw4%2FHnKH2bmKqYFv%2Bt54ogUwJWHPQhB3JCpk9UzPNduK1M6SU9RK2%2F2JApiJbSXUekyaJUo%2FmS0c7NfS5YMurPWVBRmbjxBvS77RKFZmiOzYn7uC%2BMQHxQdpQNLNV8iJE0%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/204182194587?hash=item2f8a35099b:g:yN4AAOSwQWFjlAL8&amp;amdata=enc%3AAQAHAAAAoHOcC7AwILy5JLx3LWUEwfLY0vXe6k3KJuEZiBrXJZ2VG3tSpjWmxlODip5HGzlJeFp11n9xS9az6Q3ehzIFHjudPSnUglk%2BRNm3tTKw6OME%2BYggp3XHmGruQdvW1k6Ywksga0YyJelYyp7oqJ1wo7Uzp9NOjYO%2FYOdi%2FUf1TJgwmbOGCpM7t7xNpnfy5qb2FPSua%2BwLW1M2%2B51TaL2Z88s%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>571</v>
+        <v>650</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1412,22 +1412,22 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1d 5h restantes</t>
+          <t>1d 22h restantes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GIGABYTE RTX 3080 VISION OC</t>
+          <t>ASUS TUF-NVIDIA RTX3080-O10GB-GAMING (V1 NO LHR) sin caja.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/134366479450?epid=6041894992&amp;hash=item1f48ddc45a:g:dWQAAOSwYMZjmjWc&amp;amdata=enc%3AAQAHAAAAoBSvD2inlonuIcrF5uDOKvzyBiTuy9ZKDKzHW5TJ7N0ENjD9vB1%2B7Fa8ztnRlC2PwWjcC%2ByDkyyft4vqr%2FhwMR%2FiRuSGj31pzlQjdgB2JMbNAs73Qj17jDZFGrxgnEhVTfwnx0veD%2BT2K2lbnldmvoB3DxWZv6bKa3SFCY5ai0x%2BnLvPTjzC%2FM6tn9wmhkehd79TJfd2pac0bFQQjhJUlv4%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/374405297154?hash=item572c4b7402:g:TucAAOSwzahjZDe6&amp;amdata=enc%3AAQAHAAAAoJnKO1osgvSsRjCDxX6sUZmFixNKvqTc3q4FPQF6C02Y74qqishz724IXUAbPnrsdDLhkS4nE%2BPMGOWiF2MvdfAdDXTvEmNP4M6vosNUegFPjGqUaeZyUhrtApfVHCQfhcwX1lXURn1844Slynk9r2MQi6nuDNjGvUA7uAd%2BT6Sca%2BlJOsWsq3UDLwENvKvSPblnV0yeinDs6QztTPbzK5A%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1436,18 +1436,18 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>de Bélgica</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1461,13 +1461,13 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5d 6h restantes</t>
+          <t>6d 21h restantes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295419024283?hash=item44c858939b:g:~eQAAOSwHNRjmoOK&amp;amdata=enc%3AAQAHAAAAoKEnvNqGxde0LqgfpC35Og6Opn4%2B%2BnMOtIqGp6H7HubFgikU0RV%2BAw%2FzA9Wy5BnYLJZ20wzTZiq33IbKwjeWiNH8BmXYESUWwdA03UxDL9MZsVAd07Q54s2Kp0uJyDqbdl0niksj6ETCFqE6AZ8oMkF9DWCvFUTkYWbz44TQkl8k1XiaqOWrg3oIwuomuYf0hOv3hS%2Fpgjdv79o2bq2M0K8%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
+          <t>https://www.ebay.com/itm/295419024283?hash=item44c858939b:g:~eQAAOSwHNRjmoOK&amp;amdata=enc%3AAQAHAAAAoKEnvNqGxde0LqgfpC35Og6Opn4%2B%2BnMOtIqGp6H7HubF1NlGDGG2hG0ZsZ9MyzlOQMJK3sRhPCLIUvVKLV3JxVVINf80VJmAoewacXa%2FdhiTvD2Ec%2FgiOO%2BXRnuHfLqMZbwzKngjiqLlhZc3qA%2BD6qi2woS5foeYxw40EMgOml8LuobTNHs2xsHW%2BPA%2F4HueIZ9vfyZnUMWtFbsTDMMat%2Fs%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>40</v>
       </c>
       <c r="H22" t="n">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1510,42 +1510,42 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6d 5h restantes</t>
+          <t>6d restantes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EVGA GeForce® RTX 3080 FTW3 ULTRA GAMING 10G NON LHR</t>
+          <t>GIGABYTE GeForce RTX 3080 Ti OC 12GB GDDR6X Tarjeta Grafica</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266031573205?hash=item3df0b7a8d5:g:NU8AAOSw1uljB2xo&amp;amdata=enc%3AAQAHAAAAoEueXhR%2F2OpYe6%2F3CKstYNk%2FtC%2BGNYhJ%2FfCadUI9%2BwEO8CXQ9hY35RpQ1yFAnRZHKZTjHZfXA9tmK7hyFP2dSy5iMf%2BLXtI9jgsHb3HMLxxHLIV301dBtDxKfjlh8E5grgKfgewYt761b4bjkKVb2jxCAR3v1vMOPZPxXqJgyKx5AWvSu5ToUu%2F0nvZXKookAdznkhqz1JnHLWRdaNcgPrQ%3D%7Ctkp%3ABk9SR5blt7WjYQ</t>
+          <t>https://www.ebay.com/itm/155301073429?hash=item2428aa5215:g:aawAAOSw8Sljk43G&amp;amdata=enc%3AAQAHAAAAoHqRs9kO2EA7MPICqdvyCnrBSRGmeVICkGu5f6%2BPbiVlHHEHILwR7VQVeZ%2B8spB15wD08teLUUzmFlFWBkZV9XG8vzEi1uNDZrMrd6XnCbtusTlYmUfK5B2sqzNidExVThbrxNQi0LMMTGEUH94%2Flsdz9b2iehaRXRp%2FIVBgvBbPzkeo0VCLJakTOaFDjrPFilTbLkSIUrFk9eOhlKGrd3E%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Seminovo</t>
+          <t>Novo (outro)</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>de França</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H23" t="n">
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1559,154 +1559,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2d 4h restantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>RTX 3080 EKWB Custom Wasserkühlung</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/204182194587?hash=item2f8a35099b:g:yN4AAOSwQWFjlAL8&amp;amdata=enc%3AAQAHAAAAoHOcC7AwILy5JLx3LWUEwfLY0vXe6k3KJuEZiBrXJZ2VFLYBduI1rBBrhALqweRzuqJs%2FFMMMRZVy0gHB4cOgF3BW%2BW%2FshrIbXEeqsXP6uu%2BY200LsH8jSIShF2oUyYHJE8axj66YQ26QBe4LmNwqOXUBT9dEOilMsw%2BpxjXcwW%2B8fNyPOqFkqmyL0cWT4Qu%2Fr75WzDrFVvSSSJ%2FZQXyKiY%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Seminovo</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>600</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>de Alemanha</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>50</v>
-      </c>
-      <c r="H24" t="n">
-        <v>650</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>No other purchase options</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2d 3h restantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ASUS TUF-NVIDIA RTX3080-O10GB-GAMING (V1 NO LHR) sin caja.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/374405297154?hash=item572c4b7402:g:TucAAOSwzahjZDe6&amp;amdata=enc%3AAQAHAAAAoJnKO1osgvSsRjCDxX6sUZmFixNKvqTc3q4FPQF6C02Y4RNixkFGKMa8TGAip7eTY0heuFgyKuHmz2TgS1QOuL4EFRgpPPqcb7c3CXyhFEawAP%2Fqcemeha8YFNPldpdjxYFW%2FjddQJaEWJBbvdZRhKaPud%2FzClIC%2BJSPSogVMh3GR8BjzKVuwTF14LE2jy64fgej7vdj1I5XOWbw%2BjAo9Z8%3D%7Ctkp%3ABk9SR5rlt7WjYQ</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Seminovo</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>630</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>de Espanha</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>35</v>
-      </c>
-      <c r="H25" t="n">
-        <v>665</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>No other purchase options</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>7d 2h restantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>GIGABYTE GeForce RTX 3080 Ti OC 12GB GDDR6X Tarjeta Grafica</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/155301073429?hash=item2428aa5215:g:aawAAOSw8Sljk43G&amp;amdata=enc%3AAQAHAAAAoHqRs9kO2EA7MPICqdvyCnrBSRGmeVICkGu5f6%2BPbiVlw5ElvXXUPyXVdOPjpy5aNM7OgxyPiUMmqz7MDcY0kjjpkCnkyprA92VNhHmUBP2RfojIJjGxqujxc1iRE1Kvp2lOPTTKeljxz2FSuGFq21ujsRy7MhSYcO4iMSUxQdgYcLeVvtLqdG7kk9VaEX9TvJu5tbkB1ru2CfkACB2XCRE%3D%7Ctkp%3ABk9SR5jlt7WjYQ</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Novo (outro)</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>620</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>de Espanha</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>55</v>
-      </c>
-      <c r="H26" t="n">
-        <v>675</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>No other purchase options</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1d 6h restantes</t>
+          <t>1d 1h restantes</t>
         </is>
       </c>
     </row>

--- a/results/rtx 3080.xlsx
+++ b/results/rtx 3080.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/275548475658?hash=item4027f8110a:g:goYAAOSwfupjUZJ2&amp;amdata=enc%3AAQAHAAAAoPkD7KzYPJcMTcPC1u4znHxGHlm3bvv%2BvHlgb69VEtcPs57FW9c8HMlO%2F7xXpT82G5%2BkoLY%2B0TEZpf8ZdEDEMH4sFCBtzIjOdFZhXdlTshbjzOwRKRBPk%2B%2FHIB6eu0vCSeohZk4tV%2B9CywsoFSSYlAhJl%2F7t7flILCx99HjMM%2BSbGKmSYD8AWOC6E%2FiBz%2BavUeJQJSVuDD%2BI1nuJ1%2FsIKlQ%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/275548475658?hash=item4027f8110a:g:goYAAOSwfupjUZJ2&amp;amdata=enc%3AAQAHAAAAoPkD7KzYPJcMTcPC1u4znHxGHlm3bvv%2BvHlgb69VEtcPF0pjo81pCZF%2BZfWyn%2Bf9eqSsI2V1LBQKL5tdNUGQ1SqY6IO1LaPBIE4f24J%2FOD8swqJL%2FpgdZLZnT28gEmvTBLmiz7ZcvnIU%2BLc39fp9c1Egvx%2Bd6%2B6FI8Gwjz%2BypEI3DZw3IIYX7MukW4j%2FWvTXNPK0M3RqFtUsBH3eO5d6v54%3D%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -536,7 +536,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125654019352?epid=15031199219&amp;hash=item1d41902d18:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoPp4NkA%2BJNjmWcOGjDajT0zTkaWaI%2BCosjgB9nlPlpDWHjAz02lcIbQyW2WT%2FxsnsI97r7PEvUI5pSgzgPFuVds2twjs0tDi6LG8AC0xvWyedygxqnH6AUCDS6sf6lBRctVXAGARRXXn0dMjDW8XiNRYBgSJ607ppzpmbXuYBERlB1uWMkC9bH9jpF%2B%2Bry4MwNheqZyQpanZK%2FhQRBq4GLY%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/125654019352?epid=15031199219&amp;hash=item1d41902d18:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoPp4NkA%2BJNjmWcOGjDajT0zTkaWaI%2BCosjgB9nlPlpDW14zM8gDqkGFkavOy%2FVdFtnSGtZfKh3nWw4a27d4bzqn2HAeXVYv0TuFgHIPqXyKMsXcMTzh1bNVoSZ%2B2juJTKblF8zEEbi7BS6GOAkZDqhgmx7ULm2xTwlS3rgK8ewDTvwT3zCu%2BBsAFvXTW4sFI7hhrA%2FU57euQClivkLiJtIE%3D%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -585,7 +585,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404037111469?hash=item5e127d0ead:g:uWUAAOSwpX9jjyRX&amp;amdata=enc%3AAQAHAAAAoPlCdtTId7uJBCKyOM%2FrPnBN4ZnmBbxapA6T7UeEh%2Fpdju02DbaieUzPf7tfJCmPhm0TpXfZAARl7MX9hBihM9am0RTsifuT6mCEN%2Fm%2FPAONAlOYyqHmcFoDLkn%2B8ISvdhStsMxryBNTE408w%2FHg1PhuFl%2BQzRMmLU%2B89rsYpVsEiprPApAoD4PqmqsNxAa0NdPWyA%2BK3FE95REo4QNFbSs%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/404037111469?hash=item5e127d0ead:g:uWUAAOSwpX9jjyRX&amp;amdata=enc%3AAQAHAAAAoPlCdtTId7uJBCKyOM%2FrPnBN4ZnmBbxapA6T7UeEh%2FpddCqpirQT0RDja3CSMkcTaVMRTbIxJs54fNfN0VngdGTJ10GmYmTms8mr0CwrPBmCbjiezvRF7%2Fro2YZsJtIBZhCzRY3N%2BGrZRXXaMMQmawkNHT9uieWHips2k74PoK6wXzb%2Fjt4yx2e49y2y21YwOuXtq9mEC8e2dU5zea5wTfE%3D%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -634,7 +634,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/144855657794?epid=5041892846&amp;hash=item21ba11ed42:g:itMAAOSwV8pjmj7g&amp;amdata=enc%3AAQAHAAAA4KAKAyirU06xOV04ic4GIOrJwrsuY6SyT93al13lMxZCI40bGUly%2B6QiWTSnAUS2QsmzIwERUxwz7jeZGCFrLZBYLB%2BPW%2Fu06OKQEqMjk29A3t5XFuOyROEaE3zuUnL%2BaAOlLDzzSjCN%2F7x6w9O0KkFFIlLD0BCR7UOaepPNaxH8geE09u2b%2FhSWVDzgjibjMeec9m6zHZkCR0E2yiOwttUIPzbmpfobV2oqUj0DRvBum%2F2MefahMKp2hARPhW9QjmGRKyg93PLujbKCOnhebCYbR5ewjXgxQdtEv6307sj%2F%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/144855657794?epid=5041892846&amp;hash=item21ba11ed42:g:itMAAOSwV8pjmj7g&amp;amdata=enc%3AAQAHAAAA4KAKAyirU06xOV04ic4GIOrJwrsuY6SyT93al13lMxZCI40bGUly%2B6QiWTSnAUS2QsmzIwERUxwz7jeZGCFrLZBYLB%2BPW%2Fu06OKQEqMjk29A3t5XFuOyROEaE3zuUnL%2BaNI3LHZSKV5Ehy6oGt8BxFmKLezdnICV0TxIJhR0RsCUJOVa4g%2FyGs%2BIEwas7A5kfXZgw5Epp2U%2BiiQJSnrsPl0%2BXzkg88Ev%2Fvf6HkkKDXZtlSZOpWKq5btQNi2g80tBprQTWrVd4LMO%2Fgo%2BeRjI6%2FUiPoX8yLPm47BLSuUmadiY%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -683,7 +683,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/285075658877?hash=item425fd5587d:g:ppUAAOSwC5Fjgycl&amp;amdata=enc%3AAQAHAAAAoMDoBdpEx7qldxrx0QQbT2FiH7tetgNBcvD%2BLkgH04GP0YRbsUfq4YpEFO1dZvpqIjVwmioJLn8LJDy0n%2F1MNn5oJc%2BAapJzXNBRrWsxxhZh04z1Bx3B057fLndzMYpzVZ%2BHJy%2B2GgCUWple5nftOC6hN1gIdLP4uHZj2raZgRF7h2iKurH9htvl2%2BNnD%2BEO%2B7x50X%2BlIbJ3lnxRhrrSzf0%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/285075658877?hash=item425fd5587d:g:ppUAAOSwC5Fjgycl&amp;amdata=enc%3AAQAHAAAAoMDoBdpEx7qldxrx0QQbT2FiH7tetgNBcvD%2BLkgH04GPVs8m9CUJaVHbJEgp9ptWHwLHqbr%2FGhYE1JSH91OovlsuXQK%2FtQ2IvMfLE2aVUemNYh8hfvBr6tZxnKLuaEDbi2j9jgXSb%2FK75Evhga7AxdORQ1%2F72tLV23DdSHtB7JDZWyJtJkQaGWW99I9vXdO%2Br8jHKKsESs9vo0rWixz1Aqk%3D%7Ctkp%3ABk9SR9qD5cWjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -732,7 +732,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374405382109?epid=18053884757&amp;hash=item572c4cbfdd:g:fc4AAOSwVWtjmL5j&amp;amdata=enc%3AAQAHAAAAoGN22skkc%2BOJYCrMQdvd8p9RDZ162IxS11ap9UISUBMYFljGl6akn2higEPs8nybzEyd%2Bnuo2asrD5Mnt7X6o2pY%2BI8EyaS8IcMaOb5AsBsP6xaY%2BMbSDphVQzUs86IaJbP46di2WSFA5vUYRxFVDwqHl%2F8XaeEc%2FAwwGwIgJ4T%2FFM4%2BTNAgqEqZw73UC%2FP3DexOQnmWCZynH0WdMmtbOQ8%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/374405382109?epid=18053884757&amp;hash=item572c4cbfdd:g:fc4AAOSwVWtjmL5j&amp;amdata=enc%3AAQAHAAAAoGN22skkc%2BOJYCrMQdvd8p9RDZ162IxS11ap9UISUBMYh9Ec2lGAdHjS89I7gOhlwnm0A0Rkl2cRq%2FLb%2BWlS5dH%2BtpDYx2l%2F2RfZb2kAVThCuKlzhKX5sbl4Gxfo6mcOhNpFXT4Y4DsaV%2F1VcqUvw%2Bm6h0jH%2BqkkQz5D8n5c3lo53SlyJf7Q2M2X%2BQ6A7GQK80QF20D3ZAVvsjP12tZLBos%3D%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -781,7 +781,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJG%2BI0%2FMqnchWhtliiipiaB5tdgSxOaoCclPpppllPScBzUO34gQubfuM703vhU%2Flcq%2Fq8zCe2vddW3pTFhlJhAhCTdhSZIFF%2Bo8bdHBriSPKeZAM50EuWe56T8Cbkerzhp5KMK%2BdXFsXy4azbNfNXosj%2BgyzgsDEu4pUi8qSlOyQ%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b:g:G8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJYqgUgRBwD8%2FYYPoP%2FnwiXYEHKTPbk1shZD6datYvF6RE3XCS0urkRcHOcdSw7kJnSeKe5ta2x3xX6HuMTETb0agsa%2Fu6Sq0yo0VcRvQFvY8ORaH8MhkfakDBCVUP1lCZ0yZgIrhhsz7GneXmhqrswSiel9J7ecqGhbXdTnn9PGU%3D%7Ctkp%3ABk9SR9qD5cWjYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -830,7 +830,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225298849319?hash=item3474db9e27:g:BDIAAOSwwX1jgyiF&amp;amdata=enc%3AAQAHAAAAkLpZ1CMYM53O67dqkFwy6JcALCRLYbE19kJiXoyFgeaRqImUms0JW2Brflu3n%2BYxhGfkkV84txuGSsoJzIIrmIOsu37wIKvwSRRr%2F1VjX2Xdo4b9w2lkuRiBmioGjTo5kUMRLxlDgd41HFePyUOt6ZGbVGUBrGL%2F89S%2BYaF9WdmH1tpQ003EqLVKkvJ5IncNag%3D%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/225298849319?hash=item3474db9e27:g:BDIAAOSwwX1jgyiF&amp;amdata=enc%3AAQAHAAAAkLpZ1CMYM53O67dqkFwy6JcALCRLYbE19kJiXoyFgeaROi6oYOyO6yw3zHlcMgQP6Ar4r1r7nA8FCINHfxNk288S44TUMq6ZopLK9yCMYdRFTKfzl43kb4Kj7Y92AVYQDhb%2BEO3ZUvOwrI9fo8raoCmXE7H0CBb0Nehh7uD%2FiSwssyvYYey2KVWTvGZYDpRFhA%3D%3D%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -879,7 +879,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/354454701370?epid=3041889918&amp;hash=item528725853a:g:KzwAAOSwDDtjm1WU&amp;amdata=enc%3AAQAHAAAAoNGmhD3W5BEq5Rat4uV5omV211Xq%2FWVvIj2eISKg3EOFY3EIBBSedf0Th4J94FHIa%2FtRZcTAhKwdOF4kLjC7Cq4wVSks%2Bjj8XR4PbYEdf2QO60JUA3wged8luBP5AEf9ydN2dZF5bi51CpnaNLvK0G1Fwy71XocUXMwxGGgT2QhiQdq3cdpBzxiV1pYgWY%2FJYKPnHE79tG1wcUTs4wgrNCA%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/354454701370?epid=3041889918&amp;hash=item528725853a:g:KzwAAOSwDDtjm1WU&amp;amdata=enc%3AAQAHAAAAoNGmhD3W5BEq5Rat4uV5omV211Xq%2FWVvIj2eISKg3EOFPrrPk5RAS53hjC6UpCpvLwj8Z9Wr7wxZRrysCwnWJbyr6DSFcJ03mwbbUrvnEsXv2Ba1fu%2BH5%2FdVhr1JRxbJS1zfKmLlHspyB1kFddqfWgJEmf3rUxNWXpAoOuZ8crnGO53g9z5kKHqSAh%2Ba6BFBS4LS8a3tB%2Bwv%2FD7zq1wklA0%3D%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -922,13 +922,13 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>8d 22h restantes</t>
+          <t>8d 21h restantes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404051496392?epid=25041873530&amp;hash=item5e13588dc8:g:RDAAAOSwhTVjmLkW&amp;amdata=enc%3AAQAHAAAA4OX1tOYfley5IT%2FBTSA3Eo%2Fijnuu3H%2FpT6jrymTV%2F%2F%2Bzx%2BIeaKADIh6ZGhacTU%2FWPEQTBslXdy6grsiXRNPwEQgNQubrvarX4rKZ4aXNO9GEDSZYP%2BmT7Wv3KUBoXhbCx9zC5R6mT2QpCE2dzBhrvUBuhmPRbw3WYkNYZF7z16CJ9N43kiMVxTXvcwbIJPvK88UzXzFaUKV79YZTMQEWC1o%2FolOpX3hYwYgchkZuoSAejbRw%2FHoFXQt4FkxazwVoHNE98UuhlITkp4rME3GgLKJ5vTU7m1Y5bTVlMzs3bFh6%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/404051496392?epid=25041873530&amp;hash=item5e13588dc8:g:RDAAAOSwhTVjmLkW&amp;amdata=enc%3AAQAHAAAA4OX1tOYfley5IT%2FBTSA3Eo%2Fijnuu3H%2FpT6jrymTV%2F%2F%2Bzx%2BIeaKADIh6ZGhacTU%2FWPEQTBslXdy6grsiXRNPwEQgNQubrvarX4rKZ4aXNO9GEDSZYP%2BmT7Wv3KUBoXhbCx4rdjUTodZVX0eZOFbl6p0XuG0zqoGj9c1otZ9DUmiiALJFWU2BWn0UopGAl%2BX3qXiSQtni%2FDrKJbrR7e3zBAjXo5FMeP2%2B1%2FsOjZPLtXNa0L3LMVgFUalGVphh2MG2jofQdnky26fkpzy2dc5SvhJhMnbmVqT%2FKSwN7iaa5Pog7%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -977,7 +977,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266043548353?epid=20047880078&amp;hash=item3df16e62c1:g:Ff0AAOSwXStjnGFC&amp;amdata=enc%3AAQAHAAAAoNFDQsbAeK8Vwr8s9aXaMQBTV4w1WqVvpoQwYRuQ6b9JoDW4q0kBcOOxM86KOIKLDw7mypSNp4kEXGwpb5nDXPUCF971Vh7ouYwM99BMpYFOnbkml0w7vWTIkjLGiYJSOgUjR01pCcjrIQV%2Fih6s%2Fgpo0pTyUye4zJG7EykCHRL1YTlGhpn%2BjOnjI9mBiej%2BhdSx%2BiIrMgi9MmGh8jPmTPE%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/266043548353?epid=20047880078&amp;hash=item3df16e62c1:g:Ff0AAOSwXStjnGFC&amp;amdata=enc%3AAQAHAAAAoNFDQsbAeK8Vwr8s9aXaMQBTV4w1WqVvpoQwYRuQ6b9JGbVKborqJHw3SvbtRXCGndLcQWGW2ewd6JUsKGjyCwTCLeuwAXhxgfoTAT%2BC%2FPWtWmM00BW4p%2BBi0WsDKV9C4S%2FD7Hqb3GjZq0PoJlpDC6bhsbBdeGwXb2lliOLZZydtMxlZFsiIUshBMCuQxGmloPJE3xkfs1M1oF7WL4LXhGA%3D%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1026,7 +1026,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404051515814?epid=23041457686&amp;hash=item5e1358d9a6:g:PwcAAOSw0B5jmLqw&amp;amdata=enc%3AAQAHAAAA4AlqlhVVVvtETtoP2U13Lc5atRtj06TJVKvIDVE%2BprhEeBraSjahdKJ0qp1S5FYBd4UJelTVVHzVg6GlKFo4SWRjKbhH%2BcW32Z5kwHoXhjLTUwjfvcwfkkdm%2FHQMwU85z45X45lSePCwZr%2B9%2BUl0SNnNtzHqgJe235ZPHGjR3Zm6In8ZZcwl81cqZ59jlybHM1PSsgxHqxzbf%2FYUQzqlabVFjYq9maXAKhz5vB9CY5qTZTi4PByblUUm1PtPMiFSfIuTgGtK4hjbk%2B6WHwIjj%2Fmr5CQsJK56tZ6NtzCRJWej%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/404051515814?epid=23041457686&amp;hash=item5e1358d9a6:g:PwcAAOSw0B5jmLqw&amp;amdata=enc%3AAQAHAAAA4AlqlhVVVvtETtoP2U13Lc5atRtj06TJVKvIDVE%2BprhEeBraSjahdKJ0qp1S5FYBd4UJelTVVHzVg6GlKFo4SWRjKbhH%2BcW32Z5kwHoXhjLTUwjfvcwfkkdm%2FHQMwU85z6XfUPT5lkPnpp53lMyvz6QfNseJejz%2BLiIM5eNetJvwJvjNIao0TTesnsbVbUALIgg4Y4cK1RzE%2BzA5Wq4TKxRDvtXiEf7vwieTm2xR7DTyaQZeVcXQdh43t8VSXETjC2FqKF9p6bJJmUIrvXoTgOkGbyzhAwuiBFabbXpY70tt%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1075,7 +1075,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255877482888?epid=22050522091&amp;hash=item3b937c8988:g:2XkAAOSwbs5jmPhf&amp;amdata=enc%3AAQAHAAAAoK%2FBIwmrlDKEd4wYzOLTC7oGxGMWARbzbGaZsYxGEMWZQ1aCJ4Ii4obSXyfc8qqwTmJTcRqXdSPRbOXdtL9UmPh3fLVhEIDVLaTUR%2BJ7feEZsDOxG1coTA%2FCi9sPYCeSKT8i7W2h3Wx4wni0GnpBGwVhyg1yz0L4OIvEvpp8T3J3rzWvrNKecKaFlGCNJ7M2caUSm61ItA7ii2VZI%2F4jDr8%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/255877482888?epid=22050522091&amp;hash=item3b937c8988:g:2XkAAOSwbs5jmPhf&amp;amdata=enc%3AAQAHAAAAoK%2FBIwmrlDKEd4wYzOLTC7oGxGMWARbzbGaZsYxGEMWZFqCqpTPyyBd7a5R%2BfrvEPRvhbK8PpmB%2ByqiuCXY%2F8JQ%2F9MsRdi337RW2p7rRqwdbSt1NEEhLqASNQVCtwAnlYNhsYrV1x1w87b7IwLSE4oUDMRRDc%2FSejY2l0HYZolJWR1VEF1fsP%2Ffi9F%2BPxB3vKfwsfIBrh5jzFFxnb4TiLhY%3D%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1124,7 +1124,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185700815131?epid=4043529063&amp;hash=item2b3ca1911b:g:HXoAAOSwiepjcNo3&amp;amdata=enc%3AAQAHAAAAoEW5sjkzAJzW7HPbnvcF9B7AFaFi%2FyEqoPkGc5D3r7oDZ8v%2F5OXL0jTj18Q9e%2Fl1IZb5ZD2Fo4IDoynwYUoB5dF8OWRAFE2XpFMeKzyaxZhigsjqQyOJrqrDmgZzdhjsENbVNE5QL3XXSZmdstUfIeJb3u2D7BkOOv0rgzAQwkdF5bqoNsUNUBa1KViTMu9KKluQrR4VWzXe58tLXMrJMKc%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/185700815131?epid=4043529063&amp;hash=item2b3ca1911b:g:HXoAAOSwiepjcNo3&amp;amdata=enc%3AAQAHAAAAoEW5sjkzAJzW7HPbnvcF9B7AFaFi%2FyEqoPkGc5D3r7oDu0lF3eAWwhV2Ks%2ForWejgWy%2BC7rcPicuo19c7Vb8cxE3%2Fw50qeSWJR%2B2zTwsYM3zH0%2F%2Fw7ZG9Bd6DXVSvbBHUHXfai5IwiEMBRuyx6%2Fsqs9gSI1E2K5Fj1kLyUhHNuE4YZPI9i7qULGVRgcvC5MD1pyvITK9ha0awFPRc8dA5DA%3D%7Ctkp%3ABk9SR9qD5cWjYQ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1173,7 +1173,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175528927975?epid=18053884757&amp;hash=item28de56e2e7:g:9x4AAOSwn0xjlfXX&amp;amdata=enc%3AAQAHAAAAoKZja%2B%2BjYkfTiPtLwQKCdB2NCRx3g3BmAoEYy3ltQtJao3MhCVR0cFHpC6zBEza7aupeWIJ9XPtNN%2BV7RwFSKqleu4gcp1kD7%2F9T38O99lYkpmpbYza5NPpBXf2es8gHoPtpyGEupM2fkuXwGtKCuOBLStWR9Cp25vpENh749AdHeLukRuwO%2FLoT%2B8yPUC08CDQ6k477VBjWc0u7%2BJPFzDU%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/175528927975?epid=18053884757&amp;hash=item28de56e2e7:g:9x4AAOSwn0xjlfXX&amp;amdata=enc%3AAQAHAAAAoKZja%2B%2BjYkfTiPtLwQKCdB2NCRx3g3BmAoEYy3ltQtJa4RkFsVlcUaS23aCwd44PQZvU78t0APpb6IbXlXORGCE11B6gJVTRvrZv4z8%2Bg4NsxoozrAoRTfeYoQ0QyCn5agHETTL95Ecxqn%2F0Vv%2BZKb4NXghF8J4emLhyhBRdCciFqiJyMdwc95Bz0qr%2FoGKacnkrgRStVO2OSNVlywc9l88%3D%7Ctkp%3ABk9SR9qD5cWjYQ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1216,13 +1216,13 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2d 1h restantes</t>
+          <t>2d restantes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175527696209?hash=item28de441751:g:BuoAAOSwq1ljlN1d&amp;amdata=enc%3AAQAHAAAAoOT0CqdafMBvxO8lsB%2BUouM1DUefobsKQgO2tX%2FhtoXMw58L%2BnRdWezm79AKvhmUHKzU3kPKaj5hOs7rMNinRn0YPWiVwY1AqUjG4hmnMuZvpSg6z%2Bs97NvfKfvq7W3ugTihzTxalaNfrn%2FYtfmU0F6ZZ2%2F8DhBO0%2B8fE0x7DpD4%2B2PJFVZVDHEnt%2Bt69%2BAkbb84hSLxSUPXOR4EKcCDb30%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/175527696209?hash=item28de441751:g:BuoAAOSwq1ljlN1d&amp;amdata=enc%3AAQAHAAAAoOT0CqdafMBvxO8lsB%2BUouM1DUefobsKQgO2tX%2FhtoXMys7Blu%2FpL85%2BRS7DEU%2FhvWae2hWVEaVDCVFtwED7sLUcjZ1oT9%2B%2Bd2BCqYt%2F7yVPEdgLgoA7dvsg8lv3WMz66vpOEiWVuDg%2FRCYmlhAJfl7pHkCKrCdgolxnxyX%2BYelxo5%2BSiQEuAlV0djNCssPBcmxXsfSXgcp%2B%2BKk3BuTrxA0%3D%7Ctkp%3ABk9SR9qD5cWjYQ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1271,7 +1271,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/134366479450?epid=6041894992&amp;hash=item1f48ddc45a:g:dWQAAOSwYMZjmjWc&amp;amdata=enc%3AAQAHAAAAoBSvD2inlonuIcrF5uDOKvzyBiTuy9ZKDKzHW5TJ7N0EeI0z9OJr5abCLkRVVuTfjZM%2B5b6HT0VkG6zsQKGNqReobiI1%2FTQt32pJXjHfr5BZ%2B8LunCxuLajUOeW3L%2BSnfrN3SUOfT3winj8SOwmHapNmULC2O6bWyqWwzRMc3ReRdpZZrWv7WZQ1C12TsuISUXES%2BSXAx63BgXxvD4cWZSw%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/134366479450?epid=6041894992&amp;hash=item1f48ddc45a:g:dWQAAOSwYMZjmjWc&amp;amdata=enc%3AAQAHAAAAoBSvD2inlonuIcrF5uDOKvzyBiTuy9ZKDKzHW5TJ7N0E%2Fc6%2BQSPnyNg8xic6AaplHAQfVYx6Gy08W6UMfE0godJf2ylQ5doIdwO5vEgXOzZuSgO%2FH%2BLupX2QdMflSXOc1RL9%2F5qxDa2WgKTI%2B3K%2Bv3iXVWmrN6mWmXSvkbin3JC1Z4SYYWUQyjj%2FXBsZ5A14%2Fbcyf4LUvIvbbtt%2FqKGxzAk%3D%7Ctkp%3ABk9SR9qD5cWjYQ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1320,7 +1320,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266031573205?hash=item3df0b7a8d5:g:NU8AAOSw1uljB2xo&amp;amdata=enc%3AAQAHAAAAoEueXhR%2F2OpYe6%2F3CKstYNk%2FtC%2BGNYhJ%2FfCadUI9%2BwEOx6Lt2SWgFGrELCmQqdwZbSpAQcdEzcjSC4PWsFH0cocCkw99BZClx%2F1GiDD%2F7RAgF4e7KQ9UMbd59sxww5rSbziduiXEdkfdH4%2F9%2B5x9EWN1mX8HaWocubbTwq6TTUvW3yp%2FqSdPPTCKRxeTbV%2B1wkeix%2BzBU18qJm2xqz2%2F0VQ%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/266031573205?hash=item3df0b7a8d5:g:NU8AAOSw1uljB2xo&amp;amdata=enc%3AAQAHAAAAoEueXhR%2F2OpYe6%2F3CKstYNk%2FtC%2BGNYhJ%2FfCadUI9%2BwEOeAZszQ5K0JbhxPz1XL4zTPEe2j1B1FN0v3GrSm7xR7J8Ip%2F6NaQftri1mmLBSk0z22G0j8iJ07TI2ridebiWp9%2FNQcQS%2FFOUArObvUk2ryl%2B856Nd7JaSDrSmVpaS8OVQl5ALAPzTPlYKRE0QoZp%2FymsYirT1IbtTZZFALIZ%2FL0%3D%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1369,7 +1369,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204182194587?hash=item2f8a35099b:g:yN4AAOSwQWFjlAL8&amp;amdata=enc%3AAQAHAAAAoHOcC7AwILy5JLx3LWUEwfLY0vXe6k3KJuEZiBrXJZ2VG3tSpjWmxlODip5HGzlJeFp11n9xS9az6Q3ehzIFHjudPSnUglk%2BRNm3tTKw6OME%2BYggp3XHmGruQdvW1k6Ywksga0YyJelYyp7oqJ1wo7Uzp9NOjYO%2FYOdi%2FUf1TJgwmbOGCpM7t7xNpnfy5qb2FPSua%2BwLW1M2%2B51TaL2Z88s%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/204182194587?hash=item2f8a35099b:g:yN4AAOSwQWFjlAL8&amp;amdata=enc%3AAQAHAAAAoHOcC7AwILy5JLx3LWUEwfLY0vXe6k3KJuEZiBrXJZ2VJNrz%2B0UsB3%2FtXNq1zFnLhdrZAIMGc4hvRYYjdgQ8YttMmhv9BjtaVZ1ewT6NGDPaUiNudrG2ZvCca91niXqTMwCXQDp6ShuyJ%2B4D0p%2BikwQwdDU0FcL4pdxxtRt7Zrk5B%2FyXhcXLw71LHXZo1ptZHBPm9ptXFOJIfmtlYidxGwE%3D%7Ctkp%3ABk9SR9qD5cWjYQ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374405297154?hash=item572c4b7402:g:TucAAOSwzahjZDe6&amp;amdata=enc%3AAQAHAAAAoJnKO1osgvSsRjCDxX6sUZmFixNKvqTc3q4FPQF6C02Y74qqishz724IXUAbPnrsdDLhkS4nE%2BPMGOWiF2MvdfAdDXTvEmNP4M6vosNUegFPjGqUaeZyUhrtApfVHCQfhcwX1lXURn1844Slynk9r2MQi6nuDNjGvUA7uAd%2BT6Sca%2BlJOsWsq3UDLwENvKvSPblnV0yeinDs6QztTPbzK5A%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/374405297154?hash=item572c4b7402:g:TucAAOSwzahjZDe6&amp;amdata=enc%3AAQAHAAAAoJnKO1osgvSsRjCDxX6sUZmFixNKvqTc3q4FPQF6C02Yg7PWGFP7VNONUmSnfwyZH2HUfoGWNAJfkZm%2FbDM%2F5GwxFVirL9mPaRXElUgQs6emlLb03J3ipgwCDTQsEr%2BJXFN4NIK06Nxj%2BL0dfBAUp5J2YZgp9NBoVOCKIDGLUOq0ddqu3SrGzXWnbNGW%2FOBY4%2Bk0ZS1FxoqD4xXa5mAAOAo%3D%7Ctkp%3ABk9SR9qD5cWjYQ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1467,7 +1467,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295419024283?hash=item44c858939b:g:~eQAAOSwHNRjmoOK&amp;amdata=enc%3AAQAHAAAAoKEnvNqGxde0LqgfpC35Og6Opn4%2B%2BnMOtIqGp6H7HubF1NlGDGG2hG0ZsZ9MyzlOQMJK3sRhPCLIUvVKLV3JxVVINf80VJmAoewacXa%2FdhiTvD2Ec%2FgiOO%2BXRnuHfLqMZbwzKngjiqLlhZc3qA%2BD6qi2woS5foeYxw40EMgOml8LuobTNHs2xsHW%2BPA%2F4HueIZ9vfyZnUMWtFbsTDMMat%2Fs%3D%7Ctkp%3ABk9SR4LQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/295419024283?hash=item44c858939b:g:~eQAAOSwHNRjmoOK&amp;amdata=enc%3AAQAHAAAAoKEnvNqGxde0LqgfpC35Og6Opn4%2B%2BnMOtIqGp6H7HubF2EyVw9bdUYe9SdIHZ9NLWnzjL1MzrpBMH%2FRQVeuSXDmN5Hyp9uKZaQJbzsVrA6883%2B6y7mJm4Dpqo5qCzEoZxJPZo%2BzrlR7xry10Cqgob5lQjb4A9Kh7AIvebDf109knuw51nRt702PyXxc%2F4IvQk0N%2FIML2otKoW8ZoxpqFP5Y%3D%7Ctkp%3ABk9SR9qD5cWjYQ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1516,7 +1516,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/155301073429?hash=item2428aa5215:g:aawAAOSw8Sljk43G&amp;amdata=enc%3AAQAHAAAAoHqRs9kO2EA7MPICqdvyCnrBSRGmeVICkGu5f6%2BPbiVlHHEHILwR7VQVeZ%2B8spB15wD08teLUUzmFlFWBkZV9XG8vzEi1uNDZrMrd6XnCbtusTlYmUfK5B2sqzNidExVThbrxNQi0LMMTGEUH94%2Flsdz9b2iehaRXRp%2FIVBgvBbPzkeo0VCLJakTOaFDjrPFilTbLkSIUrFk9eOhlKGrd3E%3D%7Ctkp%3ABk9SR4DQv8WjYQ</t>
+          <t>https://www.ebay.com/itm/155301073429?hash=item2428aa5215:g:aawAAOSw8Sljk43G&amp;amdata=enc%3AAQAHAAAAoHqRs9kO2EA7MPICqdvyCnrBSRGmeVICkGu5f6%2BPbiVlPNIW%2BEQsdSjymzksUaiN%2F5sF7ndgokwfW9ilk5B5XrNf9u1FnmbF1%2BpbnNqB%2FtGZmC1El9lJjS8ec981wR7OFg%2FpzSIn9sBMAjSG0s4C%2BgTrU1I5fK9e4u3d6YCsN4S%2BSthfDPEzTG38iT9kj9cYjaJV2BjyNcU7DUX2sMheiig%3D%7Ctkp%3ABk9SR9iD5cWjYQ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
